--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$V$1483</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22906" uniqueCount="8629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22905" uniqueCount="8628">
   <si>
     <t>نام</t>
   </si>
@@ -24087,9 +24090,6 @@
   </si>
   <si>
     <t>غلامرضائی نژاد</t>
-  </si>
-  <si>
-    <t>2279316161</t>
   </si>
   <si>
     <t>رامسر</t>
@@ -26239,11 +26239,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1483"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V1483"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A1468" workbookViewId="0">
+      <selection activeCell="D1483" sqref="D1483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26475,7 +26478,7 @@
         <v>3577</v>
       </c>
       <c r="V4" t="s">
-        <v>8319</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -26828,10 +26831,10 @@
         <v>3365</v>
       </c>
       <c r="K11" t="s">
+        <v>8269</v>
+      </c>
+      <c r="L11" t="s">
         <v>8270</v>
-      </c>
-      <c r="L11" t="s">
-        <v>8271</v>
       </c>
       <c r="M11" t="s">
         <v>7549</v>
@@ -27288,7 +27291,7 @@
         <v>2220</v>
       </c>
       <c r="V19" t="s">
-        <v>8320</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -27402,7 +27405,7 @@
         <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>8287</v>
+        <v>8286</v>
       </c>
       <c r="E22" t="s">
         <v>2217</v>
@@ -27423,10 +27426,10 @@
         <v>5464</v>
       </c>
       <c r="K22" t="s">
+        <v>8588</v>
+      </c>
+      <c r="L22" t="s">
         <v>8589</v>
-      </c>
-      <c r="L22" t="s">
-        <v>8590</v>
       </c>
       <c r="M22" t="s">
         <v>7549</v>
@@ -29251,7 +29254,7 @@
         <v>334</v>
       </c>
       <c r="I57" t="s">
-        <v>8165</v>
+        <v>8164</v>
       </c>
       <c r="J57" t="s">
         <v>3367</v>
@@ -29310,7 +29313,7 @@
         <v>3372</v>
       </c>
       <c r="L58" t="s">
-        <v>8566</v>
+        <v>8565</v>
       </c>
       <c r="M58" t="s">
         <v>7551</v>
@@ -29770,7 +29773,7 @@
         <v>2220</v>
       </c>
       <c r="V66" t="s">
-        <v>8317</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -30035,7 +30038,7 @@
         <v>3577</v>
       </c>
       <c r="V71" t="s">
-        <v>8316</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -30131,7 +30134,7 @@
         <v>392</v>
       </c>
       <c r="I74" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J74" t="s">
         <v>3372</v>
@@ -30355,7 +30358,7 @@
         <v>406</v>
       </c>
       <c r="I78" t="s">
-        <v>8326</v>
+        <v>8325</v>
       </c>
       <c r="J78" t="s">
         <v>3372</v>
@@ -30823,7 +30826,7 @@
         <v>443</v>
       </c>
       <c r="I87" t="s">
-        <v>8624</v>
+        <v>8623</v>
       </c>
       <c r="J87" t="s">
         <v>3372</v>
@@ -31994,10 +31997,10 @@
         <v>277</v>
       </c>
       <c r="C110" t="s">
+        <v>8549</v>
+      </c>
+      <c r="D110" t="s">
         <v>8550</v>
-      </c>
-      <c r="D110" t="s">
-        <v>8551</v>
       </c>
       <c r="E110" t="s">
         <v>197</v>
@@ -32009,10 +32012,10 @@
         <v>23</v>
       </c>
       <c r="H110" t="s">
-        <v>8552</v>
+        <v>8551</v>
       </c>
       <c r="I110" t="s">
-        <v>8564</v>
+        <v>8563</v>
       </c>
       <c r="J110" t="s">
         <v>3365</v>
@@ -32233,7 +32236,7 @@
         <v>3577</v>
       </c>
       <c r="V114" t="s">
-        <v>8160</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
@@ -32430,10 +32433,10 @@
         <v>3372</v>
       </c>
       <c r="K118" t="s">
-        <v>8345</v>
+        <v>8344</v>
       </c>
       <c r="L118" t="s">
-        <v>8271</v>
+        <v>8270</v>
       </c>
       <c r="M118" t="s">
         <v>7551</v>
@@ -32457,7 +32460,7 @@
         <v>3577</v>
       </c>
       <c r="V118" t="s">
-        <v>8340</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
@@ -32612,7 +32615,7 @@
         <v>4985</v>
       </c>
       <c r="I122" t="s">
-        <v>8625</v>
+        <v>8624</v>
       </c>
       <c r="J122" t="s">
         <v>3372</v>
@@ -33139,7 +33142,7 @@
         <v>3362</v>
       </c>
       <c r="K132" t="s">
-        <v>8066</v>
+        <v>8065</v>
       </c>
       <c r="L132" t="s">
         <v>7958</v>
@@ -33660,7 +33663,7 @@
         <v>3372</v>
       </c>
       <c r="K142" t="s">
-        <v>8224</v>
+        <v>8223</v>
       </c>
       <c r="L142" t="s">
         <v>7957</v>
@@ -34467,10 +34470,10 @@
         <v>3362</v>
       </c>
       <c r="K160" t="s">
-        <v>8421</v>
+        <v>8420</v>
       </c>
       <c r="L160" t="s">
-        <v>8395</v>
+        <v>8394</v>
       </c>
       <c r="M160" t="s">
         <v>7548</v>
@@ -34642,13 +34645,13 @@
         <v>4656</v>
       </c>
       <c r="K165" t="s">
+        <v>8066</v>
+      </c>
+      <c r="L165" t="s">
         <v>8067</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>8068</v>
-      </c>
-      <c r="M165" t="s">
-        <v>8069</v>
       </c>
       <c r="N165" t="s">
         <v>2220</v>
@@ -34695,7 +34698,7 @@
         <v>4212</v>
       </c>
       <c r="H166" t="s">
-        <v>8415</v>
+        <v>8414</v>
       </c>
       <c r="I166" t="s">
         <v>7547</v>
@@ -34709,13 +34712,13 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>8025</v>
+        <v>8024</v>
       </c>
       <c r="B167" t="s">
         <v>40</v>
       </c>
       <c r="C167" t="s">
-        <v>8026</v>
+        <v>8025</v>
       </c>
       <c r="D167" t="s">
         <v>5543</v>
@@ -34738,7 +34741,7 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>8034</v>
+        <v>8033</v>
       </c>
       <c r="B168" t="s">
         <v>88</v>
@@ -34747,10 +34750,10 @@
         <v>349</v>
       </c>
       <c r="D168" t="s">
+        <v>8034</v>
+      </c>
+      <c r="E168" t="s">
         <v>8035</v>
-      </c>
-      <c r="E168" t="s">
-        <v>8036</v>
       </c>
       <c r="F168" t="s">
         <v>23</v>
@@ -34759,7 +34762,7 @@
         <v>23</v>
       </c>
       <c r="H168" t="s">
-        <v>8037</v>
+        <v>8036</v>
       </c>
       <c r="I168" t="s">
         <v>7547</v>
@@ -34785,19 +34788,19 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>8038</v>
+        <v>8037</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
       </c>
       <c r="C169" t="s">
+        <v>8038</v>
+      </c>
+      <c r="D169" t="s">
         <v>8039</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>8040</v>
-      </c>
-      <c r="E169" t="s">
-        <v>8041</v>
       </c>
       <c r="F169" t="s">
         <v>23</v>
@@ -34806,7 +34809,7 @@
         <v>2260</v>
       </c>
       <c r="H169" t="s">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="I169" t="s">
         <v>3375</v>
@@ -34817,7 +34820,7 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>8331</v>
+        <v>8330</v>
       </c>
       <c r="B170" t="s">
         <v>93</v>
@@ -34826,16 +34829,16 @@
         <v>7353</v>
       </c>
       <c r="D170" t="s">
-        <v>8332</v>
+        <v>8331</v>
       </c>
       <c r="F170" t="s">
         <v>112</v>
       </c>
       <c r="G170" t="s">
+        <v>8332</v>
+      </c>
+      <c r="H170" t="s">
         <v>8333</v>
-      </c>
-      <c r="H170" t="s">
-        <v>8334</v>
       </c>
       <c r="I170" t="s">
         <v>3528</v>
@@ -34849,19 +34852,19 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>8450</v>
+        <v>8449</v>
       </c>
       <c r="B171" t="s">
         <v>2102</v>
       </c>
       <c r="C171" t="s">
+        <v>8450</v>
+      </c>
+      <c r="D171" t="s">
         <v>8451</v>
       </c>
-      <c r="D171" t="s">
-        <v>8452</v>
-      </c>
       <c r="E171" t="s">
-        <v>8466</v>
+        <v>8465</v>
       </c>
       <c r="F171" t="s">
         <v>188</v>
@@ -34870,10 +34873,10 @@
         <v>2414</v>
       </c>
       <c r="H171" t="s">
-        <v>8467</v>
+        <v>8466</v>
       </c>
       <c r="I171" t="s">
-        <v>8475</v>
+        <v>8474</v>
       </c>
       <c r="J171" t="s">
         <v>3372</v>
@@ -34905,19 +34908,19 @@
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>8482</v>
+        <v>8481</v>
       </c>
       <c r="B172" t="s">
         <v>97</v>
       </c>
       <c r="C172" t="s">
-        <v>8505</v>
+        <v>8504</v>
       </c>
       <c r="D172" t="s">
-        <v>8483</v>
+        <v>8482</v>
       </c>
       <c r="E172" t="s">
-        <v>8530</v>
+        <v>8529</v>
       </c>
       <c r="F172" t="s">
         <v>112</v>
@@ -34926,7 +34929,7 @@
         <v>1858</v>
       </c>
       <c r="H172" t="s">
-        <v>8484</v>
+        <v>8483</v>
       </c>
       <c r="I172" t="s">
         <v>7547</v>
@@ -34958,19 +34961,19 @@
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>8535</v>
+        <v>8534</v>
       </c>
       <c r="B173" t="s">
         <v>97</v>
       </c>
       <c r="C173" t="s">
+        <v>8535</v>
+      </c>
+      <c r="D173" t="s">
         <v>8536</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>8537</v>
-      </c>
-      <c r="E173" t="s">
-        <v>8538</v>
       </c>
       <c r="F173" t="s">
         <v>23</v>
@@ -34979,7 +34982,7 @@
         <v>23</v>
       </c>
       <c r="H173" t="s">
-        <v>8539</v>
+        <v>8538</v>
       </c>
       <c r="I173" t="s">
         <v>7461</v>
@@ -34988,7 +34991,7 @@
         <v>3372</v>
       </c>
       <c r="M173" t="s">
-        <v>8274</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.3">
@@ -35318,10 +35321,10 @@
         <v>3372</v>
       </c>
       <c r="K179" t="s">
+        <v>8479</v>
+      </c>
+      <c r="L179" t="s">
         <v>8480</v>
-      </c>
-      <c r="L179" t="s">
-        <v>8481</v>
       </c>
       <c r="M179" t="s">
         <v>7689</v>
@@ -35359,7 +35362,7 @@
         <v>2316</v>
       </c>
       <c r="E180" t="s">
-        <v>8458</v>
+        <v>8457</v>
       </c>
       <c r="F180" t="s">
         <v>23</v>
@@ -35377,10 +35380,10 @@
         <v>3365</v>
       </c>
       <c r="K180" t="s">
+        <v>8458</v>
+      </c>
+      <c r="L180" t="s">
         <v>8459</v>
-      </c>
-      <c r="L180" t="s">
-        <v>8460</v>
       </c>
       <c r="M180" t="s">
         <v>7744</v>
@@ -35812,13 +35815,13 @@
         <v>93</v>
       </c>
       <c r="C189" t="s">
+        <v>8264</v>
+      </c>
+      <c r="D189" t="s">
         <v>8265</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>8266</v>
-      </c>
-      <c r="E189" t="s">
-        <v>8267</v>
       </c>
       <c r="F189" t="s">
         <v>587</v>
@@ -35827,19 +35830,19 @@
         <v>4544</v>
       </c>
       <c r="H189" t="s">
-        <v>8268</v>
+        <v>8267</v>
       </c>
       <c r="I189" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J189" t="s">
         <v>3365</v>
       </c>
       <c r="K189" t="s">
+        <v>8305</v>
+      </c>
+      <c r="L189" t="s">
         <v>8306</v>
-      </c>
-      <c r="L189" t="s">
-        <v>8307</v>
       </c>
       <c r="M189" t="s">
         <v>7551</v>
@@ -35857,7 +35860,7 @@
         <v>2220</v>
       </c>
       <c r="V189" t="s">
-        <v>8308</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.3">
@@ -35951,7 +35954,7 @@
         <v>3577</v>
       </c>
       <c r="V191" t="s">
-        <v>8413</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.3">
@@ -36519,7 +36522,7 @@
         <v>499</v>
       </c>
       <c r="I202" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J202" t="s">
         <v>3364</v>
@@ -36695,10 +36698,10 @@
         <v>219</v>
       </c>
       <c r="D206" t="s">
+        <v>8087</v>
+      </c>
+      <c r="E206" t="s">
         <v>8088</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8089</v>
       </c>
       <c r="F206" t="s">
         <v>23</v>
@@ -36707,7 +36710,7 @@
         <v>23</v>
       </c>
       <c r="H206" t="s">
-        <v>8090</v>
+        <v>8089</v>
       </c>
       <c r="I206" t="s">
         <v>7627</v>
@@ -37540,10 +37543,10 @@
         <v>3372</v>
       </c>
       <c r="K222" t="s">
+        <v>8393</v>
+      </c>
+      <c r="L222" t="s">
         <v>8394</v>
-      </c>
-      <c r="L222" t="s">
-        <v>8395</v>
       </c>
       <c r="M222" t="s">
         <v>6293</v>
@@ -37567,7 +37570,7 @@
         <v>3577</v>
       </c>
       <c r="V222" t="s">
-        <v>8386</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.3">
@@ -38591,28 +38594,28 @@
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>8141</v>
+        <v>8140</v>
       </c>
       <c r="B245" t="s">
         <v>97</v>
       </c>
       <c r="C245" t="s">
+        <v>8141</v>
+      </c>
+      <c r="D245" t="s">
         <v>8142</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>8143</v>
-      </c>
-      <c r="E245" t="s">
-        <v>8144</v>
       </c>
       <c r="F245" t="s">
         <v>188</v>
       </c>
       <c r="G245" t="s">
+        <v>8144</v>
+      </c>
+      <c r="H245" t="s">
         <v>8145</v>
-      </c>
-      <c r="H245" t="s">
-        <v>8146</v>
       </c>
       <c r="J245" t="s">
         <v>3372</v>
@@ -38623,16 +38626,16 @@
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>8415</v>
+      </c>
+      <c r="B246" t="s">
         <v>8416</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>8417</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>8418</v>
-      </c>
-      <c r="D246" t="s">
-        <v>8419</v>
       </c>
       <c r="F246" t="s">
         <v>245</v>
@@ -38647,12 +38650,12 @@
         <v>3372</v>
       </c>
       <c r="M246" t="s">
-        <v>8420</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>8521</v>
+        <v>8520</v>
       </c>
       <c r="B247" t="s">
         <v>8017</v>
@@ -38661,10 +38664,10 @@
         <v>3494</v>
       </c>
       <c r="D247" t="s">
+        <v>8521</v>
+      </c>
+      <c r="E247" t="s">
         <v>8522</v>
-      </c>
-      <c r="E247" t="s">
-        <v>8523</v>
       </c>
       <c r="F247" t="s">
         <v>245</v>
@@ -38673,7 +38676,7 @@
         <v>12</v>
       </c>
       <c r="H247" t="s">
-        <v>8524</v>
+        <v>8523</v>
       </c>
       <c r="J247" t="s">
         <v>3372</v>
@@ -39027,7 +39030,7 @@
         <v>3577</v>
       </c>
       <c r="V253" t="s">
-        <v>8313</v>
+        <v>8312</v>
       </c>
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.3">
@@ -39317,7 +39320,7 @@
         <v>3537</v>
       </c>
       <c r="E260" t="s">
-        <v>8503</v>
+        <v>8502</v>
       </c>
       <c r="F260" t="s">
         <v>171</v>
@@ -39326,7 +39329,7 @@
         <v>2242</v>
       </c>
       <c r="H260" t="s">
-        <v>8504</v>
+        <v>8503</v>
       </c>
       <c r="I260" t="s">
         <v>7461</v>
@@ -39420,7 +39423,7 @@
         <v>4146</v>
       </c>
       <c r="E262" t="s">
-        <v>8613</v>
+        <v>8612</v>
       </c>
       <c r="F262" t="s">
         <v>1250</v>
@@ -39429,7 +39432,7 @@
         <v>952</v>
       </c>
       <c r="H262" t="s">
-        <v>8614</v>
+        <v>8613</v>
       </c>
       <c r="I262" t="s">
         <v>7627</v>
@@ -40072,19 +40075,19 @@
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>8496</v>
+        <v>8495</v>
       </c>
       <c r="B276" t="s">
         <v>1840</v>
       </c>
       <c r="C276" t="s">
+        <v>8496</v>
+      </c>
+      <c r="D276" t="s">
         <v>8497</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>8498</v>
-      </c>
-      <c r="E276" t="s">
-        <v>8499</v>
       </c>
       <c r="F276" t="s">
         <v>171</v>
@@ -40093,7 +40096,7 @@
         <v>2242</v>
       </c>
       <c r="H276" t="s">
-        <v>8500</v>
+        <v>8499</v>
       </c>
       <c r="I276" t="s">
         <v>7547</v>
@@ -40208,7 +40211,7 @@
         <v>3548</v>
       </c>
       <c r="I278" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J278" t="s">
         <v>3365</v>
@@ -40332,7 +40335,7 @@
         <v>3577</v>
       </c>
       <c r="V280" t="s">
-        <v>8462</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.3">
@@ -40685,10 +40688,10 @@
         <v>3362</v>
       </c>
       <c r="K287" t="s">
+        <v>8212</v>
+      </c>
+      <c r="L287" t="s">
         <v>8213</v>
-      </c>
-      <c r="L287" t="s">
-        <v>8214</v>
       </c>
       <c r="M287" t="s">
         <v>7549</v>
@@ -40712,7 +40715,7 @@
         <v>3577</v>
       </c>
       <c r="V287" t="s">
-        <v>8215</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.3">
@@ -41000,10 +41003,10 @@
         <v>3365</v>
       </c>
       <c r="K293" t="s">
+        <v>8531</v>
+      </c>
+      <c r="L293" t="s">
         <v>8532</v>
-      </c>
-      <c r="L293" t="s">
-        <v>8533</v>
       </c>
       <c r="M293" t="s">
         <v>7551</v>
@@ -41047,7 +41050,7 @@
         <v>4377</v>
       </c>
       <c r="I294" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="M294" t="s">
         <v>6313</v>
@@ -41097,7 +41100,7 @@
         <v>4958</v>
       </c>
       <c r="I295" t="s">
-        <v>8625</v>
+        <v>8624</v>
       </c>
       <c r="J295" t="s">
         <v>3372</v>
@@ -41398,7 +41401,7 @@
         <v>3577</v>
       </c>
       <c r="V300" t="s">
-        <v>8269</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="301" spans="1:22" x14ac:dyDescent="0.3">
@@ -41609,7 +41612,7 @@
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>8138</v>
+        <v>8137</v>
       </c>
       <c r="B305" t="s">
         <v>533</v>
@@ -41618,10 +41621,10 @@
         <v>315</v>
       </c>
       <c r="D305" t="s">
+        <v>8138</v>
+      </c>
+      <c r="E305" t="s">
         <v>8139</v>
-      </c>
-      <c r="E305" t="s">
-        <v>8140</v>
       </c>
       <c r="F305" t="s">
         <v>203</v>
@@ -41639,10 +41642,10 @@
         <v>3402</v>
       </c>
       <c r="K305" t="s">
+        <v>8239</v>
+      </c>
+      <c r="L305" t="s">
         <v>8240</v>
-      </c>
-      <c r="L305" t="s">
-        <v>8241</v>
       </c>
       <c r="M305" t="s">
         <v>7548</v>
@@ -41669,7 +41672,7 @@
         <v>3577</v>
       </c>
       <c r="V305" t="s">
-        <v>8397</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.3">
@@ -41904,7 +41907,7 @@
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>8135</v>
+        <v>8134</v>
       </c>
       <c r="B310" t="s">
         <v>20</v>
@@ -41913,7 +41916,7 @@
         <v>5209</v>
       </c>
       <c r="D310" t="s">
-        <v>8136</v>
+        <v>8135</v>
       </c>
       <c r="F310" t="s">
         <v>179</v>
@@ -41922,7 +41925,7 @@
         <v>179</v>
       </c>
       <c r="H310" t="s">
-        <v>8137</v>
+        <v>8136</v>
       </c>
       <c r="I310" t="s">
         <v>7461</v>
@@ -42333,7 +42336,7 @@
         <v>2216</v>
       </c>
       <c r="I319" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J319" t="s">
         <v>2217</v>
@@ -43214,7 +43217,7 @@
         <v>2220</v>
       </c>
       <c r="V335" t="s">
-        <v>8626</v>
+        <v>8625</v>
       </c>
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.3">
@@ -43228,7 +43231,7 @@
         <v>577</v>
       </c>
       <c r="D336" t="s">
-        <v>8072</v>
+        <v>8071</v>
       </c>
       <c r="E336" t="s">
         <v>3723</v>
@@ -43249,7 +43252,7 @@
         <v>3362</v>
       </c>
       <c r="K336" t="s">
-        <v>8073</v>
+        <v>8072</v>
       </c>
       <c r="L336" t="s">
         <v>7958</v>
@@ -43473,7 +43476,7 @@
         <v>5013</v>
       </c>
       <c r="L340" t="s">
-        <v>8147</v>
+        <v>8146</v>
       </c>
       <c r="N340" t="s">
         <v>2220</v>
@@ -43523,7 +43526,7 @@
         <v>525</v>
       </c>
       <c r="H341" t="s">
-        <v>8148</v>
+        <v>8147</v>
       </c>
       <c r="I341" t="s">
         <v>2208</v>
@@ -43532,10 +43535,10 @@
         <v>3372</v>
       </c>
       <c r="K341" t="s">
+        <v>8407</v>
+      </c>
+      <c r="L341" t="s">
         <v>8408</v>
-      </c>
-      <c r="L341" t="s">
-        <v>8409</v>
       </c>
       <c r="M341" t="s">
         <v>7948</v>
@@ -43647,7 +43650,7 @@
         <v>3372</v>
       </c>
       <c r="L343" t="s">
-        <v>8147</v>
+        <v>8146</v>
       </c>
       <c r="N343" t="s">
         <v>2220</v>
@@ -44199,7 +44202,7 @@
         <v>3587</v>
       </c>
       <c r="I355" t="s">
-        <v>8362</v>
+        <v>8361</v>
       </c>
       <c r="J355" t="s">
         <v>3362</v>
@@ -44470,7 +44473,7 @@
         <v>277</v>
       </c>
       <c r="C360" t="s">
-        <v>8573</v>
+        <v>8572</v>
       </c>
       <c r="D360" t="s">
         <v>7691</v>
@@ -44493,7 +44496,7 @@
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>8113</v>
+        <v>8112</v>
       </c>
       <c r="B361" t="s">
         <v>277</v>
@@ -44502,7 +44505,7 @@
         <v>6763</v>
       </c>
       <c r="E361" t="s">
-        <v>8591</v>
+        <v>8590</v>
       </c>
       <c r="F361" t="s">
         <v>188</v>
@@ -44513,34 +44516,34 @@
     </row>
     <row r="362" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>8592</v>
+        <v>8591</v>
       </c>
       <c r="B362" t="s">
         <v>163</v>
       </c>
       <c r="C362" t="s">
+        <v>8592</v>
+      </c>
+      <c r="D362" t="s">
+        <v>8595</v>
+      </c>
+      <c r="E362" t="s">
         <v>8593</v>
-      </c>
-      <c r="D362" t="s">
-        <v>8596</v>
-      </c>
-      <c r="E362" t="s">
-        <v>8594</v>
       </c>
       <c r="F362" t="s">
         <v>525</v>
       </c>
       <c r="G362" t="s">
-        <v>8597</v>
+        <v>8596</v>
       </c>
       <c r="H362" t="s">
-        <v>8595</v>
+        <v>8594</v>
       </c>
       <c r="I362" t="s">
         <v>7627</v>
       </c>
       <c r="J362" t="s">
-        <v>8598</v>
+        <v>8597</v>
       </c>
       <c r="M362" t="s">
         <v>7549</v>
@@ -44654,16 +44657,16 @@
     </row>
     <row r="365" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>8298</v>
+        <v>8297</v>
       </c>
       <c r="B365" t="s">
         <v>6421</v>
       </c>
       <c r="C365" t="s">
+        <v>8298</v>
+      </c>
+      <c r="D365" t="s">
         <v>8299</v>
-      </c>
-      <c r="D365" t="s">
-        <v>8300</v>
       </c>
       <c r="F365" t="s">
         <v>423</v>
@@ -44672,7 +44675,7 @@
         <v>2379</v>
       </c>
       <c r="H365" t="s">
-        <v>8301</v>
+        <v>8300</v>
       </c>
       <c r="I365" t="s">
         <v>3375</v>
@@ -44683,19 +44686,19 @@
     </row>
     <row r="366" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>8468</v>
+        <v>8467</v>
       </c>
       <c r="B366" t="s">
         <v>64</v>
       </c>
       <c r="C366" t="s">
+        <v>8468</v>
+      </c>
+      <c r="D366" t="s">
         <v>8469</v>
       </c>
-      <c r="D366" t="s">
+      <c r="E366" t="s">
         <v>8470</v>
-      </c>
-      <c r="E366" t="s">
-        <v>8471</v>
       </c>
       <c r="F366" t="s">
         <v>203</v>
@@ -44704,10 +44707,10 @@
         <v>203</v>
       </c>
       <c r="H366" t="s">
-        <v>8472</v>
+        <v>8471</v>
       </c>
       <c r="I366" t="s">
-        <v>8362</v>
+        <v>8361</v>
       </c>
       <c r="J366" t="s">
         <v>3365</v>
@@ -44715,19 +44718,19 @@
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>8485</v>
+        <v>8484</v>
       </c>
       <c r="B367" t="s">
         <v>1079</v>
       </c>
       <c r="C367" t="s">
+        <v>8485</v>
+      </c>
+      <c r="D367" t="s">
         <v>8486</v>
       </c>
-      <c r="D367" t="s">
+      <c r="E367" t="s">
         <v>8487</v>
-      </c>
-      <c r="E367" t="s">
-        <v>8488</v>
       </c>
       <c r="F367" t="s">
         <v>23</v>
@@ -44736,7 +44739,7 @@
         <v>23</v>
       </c>
       <c r="H367" t="s">
-        <v>8489</v>
+        <v>8488</v>
       </c>
       <c r="J367" t="s">
         <v>3372</v>
@@ -45384,7 +45387,7 @@
         <v>2452</v>
       </c>
       <c r="M379" t="s">
-        <v>8572</v>
+        <v>8571</v>
       </c>
       <c r="N379" t="s">
         <v>2220</v>
@@ -45800,7 +45803,7 @@
         <v>6359</v>
       </c>
       <c r="V386" t="s">
-        <v>8403</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="387" spans="1:22" x14ac:dyDescent="0.3">
@@ -46794,7 +46797,7 @@
         <v>3916</v>
       </c>
       <c r="I409" t="s">
-        <v>8625</v>
+        <v>8624</v>
       </c>
       <c r="J409" t="s">
         <v>3372</v>
@@ -47156,10 +47159,10 @@
         <v>3372</v>
       </c>
       <c r="K416" t="s">
+        <v>8167</v>
+      </c>
+      <c r="L416" t="s">
         <v>8168</v>
-      </c>
-      <c r="L416" t="s">
-        <v>8169</v>
       </c>
       <c r="M416" t="s">
         <v>8009</v>
@@ -47186,7 +47189,7 @@
         <v>2220</v>
       </c>
       <c r="V416" t="s">
-        <v>8170</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.3">
@@ -47830,13 +47833,13 @@
         <v>3372</v>
       </c>
       <c r="K429" t="s">
+        <v>8327</v>
+      </c>
+      <c r="L429" t="s">
+        <v>8205</v>
+      </c>
+      <c r="M429" t="s">
         <v>8328</v>
-      </c>
-      <c r="L429" t="s">
-        <v>8206</v>
-      </c>
-      <c r="M429" t="s">
-        <v>8329</v>
       </c>
       <c r="V429" t="s">
         <v>7245</v>
@@ -48073,7 +48076,7 @@
         <v>7626</v>
       </c>
       <c r="I435" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J435" t="s">
         <v>3372</v>
@@ -48239,19 +48242,19 @@
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>8091</v>
+        <v>8090</v>
       </c>
       <c r="B440" t="s">
         <v>4845</v>
       </c>
       <c r="C440" t="s">
+        <v>8091</v>
+      </c>
+      <c r="D440" t="s">
         <v>8092</v>
       </c>
-      <c r="D440" t="s">
+      <c r="E440" t="s">
         <v>8093</v>
-      </c>
-      <c r="E440" t="s">
-        <v>8094</v>
       </c>
       <c r="F440" t="s">
         <v>23</v>
@@ -48260,7 +48263,7 @@
         <v>6103</v>
       </c>
       <c r="H440" t="s">
-        <v>8095</v>
+        <v>8094</v>
       </c>
       <c r="J440" t="s">
         <v>3372</v>
@@ -48271,19 +48274,19 @@
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>8176</v>
+        <v>8175</v>
       </c>
       <c r="B441" t="s">
         <v>870</v>
       </c>
       <c r="C441" t="s">
+        <v>8176</v>
+      </c>
+      <c r="D441" t="s">
         <v>8177</v>
       </c>
-      <c r="D441" t="s">
+      <c r="E441" t="s">
         <v>8178</v>
-      </c>
-      <c r="E441" t="s">
-        <v>8179</v>
       </c>
       <c r="F441" t="s">
         <v>23</v>
@@ -48292,7 +48295,7 @@
         <v>23</v>
       </c>
       <c r="H441" t="s">
-        <v>8273</v>
+        <v>8272</v>
       </c>
       <c r="I441" t="s">
         <v>7547</v>
@@ -48301,36 +48304,36 @@
         <v>3372</v>
       </c>
       <c r="M441" t="s">
+        <v>8273</v>
+      </c>
+      <c r="N441" t="s">
+        <v>2220</v>
+      </c>
+      <c r="O441" t="s">
+        <v>2220</v>
+      </c>
+      <c r="P441" t="s">
+        <v>2220</v>
+      </c>
+      <c r="V441" t="s">
         <v>8274</v>
-      </c>
-      <c r="N441" t="s">
-        <v>2220</v>
-      </c>
-      <c r="O441" t="s">
-        <v>2220</v>
-      </c>
-      <c r="P441" t="s">
-        <v>2220</v>
-      </c>
-      <c r="V441" t="s">
-        <v>8275</v>
       </c>
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>8186</v>
+        <v>8185</v>
       </c>
       <c r="B442" t="s">
         <v>549</v>
       </c>
       <c r="C442" t="s">
+        <v>8186</v>
+      </c>
+      <c r="D442" t="s">
         <v>8187</v>
       </c>
-      <c r="D442" t="s">
+      <c r="E442" t="s">
         <v>8188</v>
-      </c>
-      <c r="E442" t="s">
-        <v>8189</v>
       </c>
       <c r="F442" t="s">
         <v>123</v>
@@ -48339,7 +48342,7 @@
         <v>2236</v>
       </c>
       <c r="H442" t="s">
-        <v>8190</v>
+        <v>8189</v>
       </c>
       <c r="I442" t="s">
         <v>7627</v>
@@ -48353,16 +48356,16 @@
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>8199</v>
+        <v>8198</v>
       </c>
       <c r="B443" t="s">
         <v>3768</v>
       </c>
       <c r="C443" t="s">
+        <v>8199</v>
+      </c>
+      <c r="D443" t="s">
         <v>8200</v>
-      </c>
-      <c r="D443" t="s">
-        <v>8201</v>
       </c>
       <c r="F443" t="s">
         <v>23</v>
@@ -48371,7 +48374,7 @@
         <v>23</v>
       </c>
       <c r="H443" t="s">
-        <v>8202</v>
+        <v>8201</v>
       </c>
       <c r="I443" t="s">
         <v>7547</v>
@@ -48382,7 +48385,7 @@
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>8512</v>
+        <v>8511</v>
       </c>
       <c r="B444" t="s">
         <v>729</v>
@@ -48391,19 +48394,19 @@
         <v>672</v>
       </c>
       <c r="D444" t="s">
+        <v>8512</v>
+      </c>
+      <c r="E444" t="s">
         <v>8513</v>
-      </c>
-      <c r="E444" t="s">
-        <v>8514</v>
       </c>
       <c r="F444" t="s">
         <v>241</v>
       </c>
       <c r="G444" t="s">
+        <v>8514</v>
+      </c>
+      <c r="H444" t="s">
         <v>8515</v>
-      </c>
-      <c r="H444" t="s">
-        <v>8516</v>
       </c>
       <c r="I444" t="s">
         <v>7547</v>
@@ -48424,21 +48427,21 @@
         <v>2220</v>
       </c>
       <c r="V444" t="s">
-        <v>8529</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>8602</v>
+        <v>8601</v>
       </c>
       <c r="B445" t="s">
         <v>97</v>
       </c>
       <c r="C445" t="s">
+        <v>8602</v>
+      </c>
+      <c r="D445" t="s">
         <v>8603</v>
-      </c>
-      <c r="D445" t="s">
-        <v>8604</v>
       </c>
       <c r="F445" t="s">
         <v>179</v>
@@ -48447,7 +48450,7 @@
         <v>4731</v>
       </c>
       <c r="H445" t="s">
-        <v>8605</v>
+        <v>8604</v>
       </c>
       <c r="I445" t="s">
         <v>7627</v>
@@ -48485,7 +48488,7 @@
         <v>727</v>
       </c>
       <c r="I446" t="s">
-        <v>8426</v>
+        <v>8425</v>
       </c>
       <c r="J446" t="s">
         <v>3362</v>
@@ -48662,7 +48665,7 @@
         <v>737</v>
       </c>
       <c r="I449" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J449" t="s">
         <v>3376</v>
@@ -48894,7 +48897,7 @@
         <v>724</v>
       </c>
       <c r="C454" t="s">
-        <v>8370</v>
+        <v>8369</v>
       </c>
       <c r="D454" t="s">
         <v>2479</v>
@@ -48912,7 +48915,7 @@
         <v>727</v>
       </c>
       <c r="I454" t="s">
-        <v>8362</v>
+        <v>8361</v>
       </c>
       <c r="J454" t="s">
         <v>3365</v>
@@ -48995,7 +48998,7 @@
         <v>3577</v>
       </c>
       <c r="V455" t="s">
-        <v>8170</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="456" spans="1:22" x14ac:dyDescent="0.3">
@@ -49560,10 +49563,10 @@
         <v>3365</v>
       </c>
       <c r="K466" t="s">
-        <v>8309</v>
+        <v>8308</v>
       </c>
       <c r="L466" t="s">
-        <v>8241</v>
+        <v>8240</v>
       </c>
       <c r="M466" t="s">
         <v>7549</v>
@@ -49799,7 +49802,7 @@
         <v>3700</v>
       </c>
       <c r="L470" t="s">
-        <v>8368</v>
+        <v>8367</v>
       </c>
       <c r="M470" t="s">
         <v>7744</v>
@@ -50769,10 +50772,10 @@
         <v>3372</v>
       </c>
       <c r="K493" t="s">
-        <v>8272</v>
+        <v>8271</v>
       </c>
       <c r="L493" t="s">
-        <v>8271</v>
+        <v>8270</v>
       </c>
       <c r="M493" t="s">
         <v>7551</v>
@@ -50865,28 +50868,28 @@
     </row>
     <row r="496" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>8129</v>
+        <v>8128</v>
       </c>
       <c r="B496" t="s">
         <v>944</v>
       </c>
       <c r="C496" t="s">
+        <v>8129</v>
+      </c>
+      <c r="D496" t="s">
         <v>8130</v>
       </c>
-      <c r="D496" t="s">
+      <c r="E496" t="s">
         <v>8131</v>
-      </c>
-      <c r="E496" t="s">
-        <v>8132</v>
       </c>
       <c r="F496" t="s">
         <v>911</v>
       </c>
       <c r="G496" t="s">
+        <v>8132</v>
+      </c>
+      <c r="H496" t="s">
         <v>8133</v>
-      </c>
-      <c r="H496" t="s">
-        <v>8134</v>
       </c>
       <c r="I496" t="s">
         <v>2208</v>
@@ -50895,10 +50898,10 @@
         <v>3372</v>
       </c>
       <c r="K496" t="s">
+        <v>8340</v>
+      </c>
+      <c r="L496" t="s">
         <v>8341</v>
-      </c>
-      <c r="L496" t="s">
-        <v>8342</v>
       </c>
       <c r="M496" t="s">
         <v>7904</v>
@@ -50927,7 +50930,7 @@
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>8218</v>
+        <v>8217</v>
       </c>
       <c r="B497" t="s">
         <v>1032</v>
@@ -50936,10 +50939,10 @@
         <v>725</v>
       </c>
       <c r="D497" t="s">
+        <v>8218</v>
+      </c>
+      <c r="E497" t="s">
         <v>8219</v>
-      </c>
-      <c r="E497" t="s">
-        <v>8220</v>
       </c>
       <c r="F497" t="s">
         <v>203</v>
@@ -50948,7 +50951,7 @@
         <v>203</v>
       </c>
       <c r="H497" t="s">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="I497" t="s">
         <v>7627</v>
@@ -50962,28 +50965,28 @@
     </row>
     <row r="498" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>8346</v>
+        <v>8345</v>
       </c>
       <c r="B498" t="s">
         <v>3752</v>
       </c>
       <c r="C498" t="s">
+        <v>8346</v>
+      </c>
+      <c r="D498" t="s">
         <v>8347</v>
       </c>
-      <c r="D498" t="s">
+      <c r="E498" t="s">
         <v>8348</v>
-      </c>
-      <c r="E498" t="s">
-        <v>8349</v>
       </c>
       <c r="F498" t="s">
         <v>123</v>
       </c>
       <c r="G498" t="s">
-        <v>8350</v>
+        <v>8349</v>
       </c>
       <c r="H498" t="s">
-        <v>8358</v>
+        <v>8357</v>
       </c>
       <c r="I498" t="s">
         <v>7627</v>
@@ -50992,7 +50995,7 @@
         <v>3372</v>
       </c>
       <c r="M498" t="s">
-        <v>8357</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="499" spans="1:22" x14ac:dyDescent="0.3">
@@ -51227,7 +51230,7 @@
         <v>3741</v>
       </c>
       <c r="I503" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J503" t="s">
         <v>3367</v>
@@ -51280,7 +51283,7 @@
         <v>805</v>
       </c>
       <c r="I504" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J504" t="s">
         <v>3365</v>
@@ -51955,7 +51958,7 @@
         <v>837</v>
       </c>
       <c r="I516" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J516" t="s">
         <v>3376</v>
@@ -52203,7 +52206,7 @@
         <v>2220</v>
       </c>
       <c r="V520" t="s">
-        <v>8321</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="521" spans="1:22" x14ac:dyDescent="0.3">
@@ -52361,16 +52364,16 @@
         <v>3767</v>
       </c>
       <c r="B524" t="s">
-        <v>8540</v>
+        <v>8539</v>
       </c>
       <c r="C524" t="s">
         <v>794</v>
       </c>
       <c r="D524" t="s">
+        <v>8540</v>
+      </c>
+      <c r="E524" t="s">
         <v>8541</v>
-      </c>
-      <c r="E524" t="s">
-        <v>8542</v>
       </c>
       <c r="F524" t="s">
         <v>171</v>
@@ -52379,7 +52382,7 @@
         <v>2242</v>
       </c>
       <c r="H524" t="s">
-        <v>8543</v>
+        <v>8542</v>
       </c>
       <c r="J524" t="s">
         <v>3372</v>
@@ -52805,7 +52808,7 @@
         <v>6798</v>
       </c>
       <c r="E533" t="s">
-        <v>8446</v>
+        <v>8445</v>
       </c>
       <c r="F533" t="s">
         <v>123</v>
@@ -52817,16 +52820,16 @@
         <v>6799</v>
       </c>
       <c r="I533" t="s">
-        <v>8447</v>
+        <v>8446</v>
       </c>
       <c r="J533" t="s">
         <v>3372</v>
       </c>
       <c r="K533" t="s">
+        <v>8447</v>
+      </c>
+      <c r="L533" t="s">
         <v>8448</v>
-      </c>
-      <c r="L533" t="s">
-        <v>8449</v>
       </c>
       <c r="M533" t="s">
         <v>7549</v>
@@ -53002,10 +53005,10 @@
         <v>3372</v>
       </c>
       <c r="K537" t="s">
-        <v>8314</v>
+        <v>8313</v>
       </c>
       <c r="L537" t="s">
-        <v>8150</v>
+        <v>8149</v>
       </c>
       <c r="M537" t="s">
         <v>7549</v>
@@ -53014,7 +53017,7 @@
         <v>3577</v>
       </c>
       <c r="V537" t="s">
-        <v>8315</v>
+        <v>8314</v>
       </c>
     </row>
     <row r="538" spans="1:22" x14ac:dyDescent="0.3">
@@ -53206,16 +53209,16 @@
     </row>
     <row r="543" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
+        <v>8334</v>
+      </c>
+      <c r="B543" t="s">
         <v>8335</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>8336</v>
       </c>
-      <c r="C543" t="s">
+      <c r="D543" t="s">
         <v>8337</v>
-      </c>
-      <c r="D543" t="s">
-        <v>8338</v>
       </c>
       <c r="F543" t="s">
         <v>179</v>
@@ -53224,7 +53227,7 @@
         <v>4731</v>
       </c>
       <c r="H543" t="s">
-        <v>8339</v>
+        <v>8338</v>
       </c>
       <c r="I543" t="s">
         <v>7627</v>
@@ -53321,7 +53324,7 @@
         <v>865</v>
       </c>
       <c r="I545" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J545" t="s">
         <v>2199</v>
@@ -53495,10 +53498,10 @@
         <v>3372</v>
       </c>
       <c r="K548" t="s">
+        <v>8204</v>
+      </c>
+      <c r="L548" t="s">
         <v>8205</v>
-      </c>
-      <c r="L548" t="s">
-        <v>8206</v>
       </c>
       <c r="M548" t="s">
         <v>7551</v>
@@ -53658,19 +53661,19 @@
         <v>15</v>
       </c>
       <c r="C553" t="s">
+        <v>8226</v>
+      </c>
+      <c r="D553" t="s">
         <v>8227</v>
       </c>
-      <c r="D553" t="s">
+      <c r="E553" t="s">
         <v>8228</v>
-      </c>
-      <c r="E553" t="s">
-        <v>8229</v>
       </c>
       <c r="F553" t="s">
         <v>23</v>
       </c>
       <c r="H553" t="s">
-        <v>8230</v>
+        <v>8229</v>
       </c>
       <c r="V553">
         <v>91</v>
@@ -53905,7 +53908,7 @@
         <v>3773</v>
       </c>
       <c r="I558" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J558" t="s">
         <v>3372</v>
@@ -53946,7 +53949,7 @@
         <v>2565</v>
       </c>
       <c r="E559" t="s">
-        <v>8502</v>
+        <v>8501</v>
       </c>
       <c r="F559" t="s">
         <v>171</v>
@@ -53958,13 +53961,13 @@
         <v>890</v>
       </c>
       <c r="I559" t="s">
-        <v>8461</v>
+        <v>8460</v>
       </c>
       <c r="J559" t="s">
         <v>3372</v>
       </c>
       <c r="M559" t="s">
-        <v>8434</v>
+        <v>8433</v>
       </c>
       <c r="N559" t="s">
         <v>2220</v>
@@ -54273,7 +54276,7 @@
         <v>912</v>
       </c>
       <c r="I565" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J565" t="s">
         <v>2217</v>
@@ -54464,13 +54467,13 @@
         <v>54</v>
       </c>
       <c r="C569" t="s">
+        <v>8352</v>
+      </c>
+      <c r="D569" t="s">
         <v>8353</v>
       </c>
-      <c r="D569" t="s">
+      <c r="E569" t="s">
         <v>8354</v>
-      </c>
-      <c r="E569" t="s">
-        <v>8355</v>
       </c>
       <c r="F569" t="s">
         <v>203</v>
@@ -54479,7 +54482,7 @@
         <v>203</v>
       </c>
       <c r="H569" t="s">
-        <v>8356</v>
+        <v>8355</v>
       </c>
       <c r="I569" t="s">
         <v>7627</v>
@@ -54594,7 +54597,7 @@
         <v>3372</v>
       </c>
       <c r="M571" t="s">
-        <v>8434</v>
+        <v>8433</v>
       </c>
       <c r="N571" t="s">
         <v>2220</v>
@@ -54615,7 +54618,7 @@
         <v>3577</v>
       </c>
       <c r="V571" t="s">
-        <v>8239</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="572" spans="1:22" x14ac:dyDescent="0.3">
@@ -56277,7 +56280,7 @@
         <v>3830</v>
       </c>
       <c r="C604" t="s">
-        <v>8463</v>
+        <v>8462</v>
       </c>
       <c r="D604" t="s">
         <v>6487</v>
@@ -56319,7 +56322,7 @@
         <v>2220</v>
       </c>
       <c r="V604" t="s">
-        <v>8412</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="605" spans="1:22" x14ac:dyDescent="0.3">
@@ -56557,10 +56560,10 @@
         <v>3372</v>
       </c>
       <c r="K609" t="s">
+        <v>8309</v>
+      </c>
+      <c r="L609" t="s">
         <v>8310</v>
-      </c>
-      <c r="L609" t="s">
-        <v>8311</v>
       </c>
       <c r="M609" t="s">
         <v>7551</v>
@@ -56725,10 +56728,10 @@
         <v>3372</v>
       </c>
       <c r="K612" t="s">
+        <v>8048</v>
+      </c>
+      <c r="L612" t="s">
         <v>8049</v>
-      </c>
-      <c r="L612" t="s">
-        <v>8050</v>
       </c>
       <c r="M612" t="s">
         <v>7549</v>
@@ -57476,7 +57479,7 @@
         <v>3577</v>
       </c>
       <c r="V626" t="s">
-        <v>8312</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="627" spans="1:22" x14ac:dyDescent="0.3">
@@ -57899,7 +57902,7 @@
         <v>7549</v>
       </c>
       <c r="V635" t="s">
-        <v>8170</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="636" spans="1:22" x14ac:dyDescent="0.3">
@@ -58144,7 +58147,7 @@
     </row>
     <row r="642" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>8290</v>
+        <v>8289</v>
       </c>
       <c r="B642" t="s">
         <v>163</v>
@@ -58153,10 +58156,10 @@
         <v>945</v>
       </c>
       <c r="D642" t="s">
+        <v>8290</v>
+      </c>
+      <c r="E642" t="s">
         <v>8291</v>
-      </c>
-      <c r="E642" t="s">
-        <v>8292</v>
       </c>
       <c r="F642" t="s">
         <v>587</v>
@@ -58165,7 +58168,7 @@
         <v>2737</v>
       </c>
       <c r="H642" t="s">
-        <v>8293</v>
+        <v>8292</v>
       </c>
       <c r="I642" t="s">
         <v>7547</v>
@@ -58179,16 +58182,16 @@
     </row>
     <row r="643" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
+        <v>8552</v>
+      </c>
+      <c r="B643" t="s">
         <v>8553</v>
-      </c>
-      <c r="B643" t="s">
-        <v>8554</v>
       </c>
       <c r="C643" t="s">
         <v>978</v>
       </c>
       <c r="D643" t="s">
-        <v>8555</v>
+        <v>8554</v>
       </c>
       <c r="F643" t="s">
         <v>245</v>
@@ -58197,7 +58200,7 @@
         <v>2573</v>
       </c>
       <c r="H643" t="s">
-        <v>8556</v>
+        <v>8555</v>
       </c>
       <c r="I643" t="s">
         <v>7547</v>
@@ -58211,16 +58214,16 @@
     </row>
     <row r="644" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>8620</v>
+        <v>8619</v>
       </c>
       <c r="B644" t="s">
         <v>121</v>
       </c>
       <c r="C644" t="s">
+        <v>8620</v>
+      </c>
+      <c r="D644" t="s">
         <v>8621</v>
-      </c>
-      <c r="D644" t="s">
-        <v>8622</v>
       </c>
       <c r="F644" t="s">
         <v>179</v>
@@ -58229,7 +58232,7 @@
         <v>4731</v>
       </c>
       <c r="H644" t="s">
-        <v>8623</v>
+        <v>8622</v>
       </c>
       <c r="I644" t="s">
         <v>3791</v>
@@ -58323,7 +58326,7 @@
         <v>995</v>
       </c>
       <c r="I646" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J646" t="s">
         <v>3365</v>
@@ -58417,7 +58420,7 @@
         <v>2617</v>
       </c>
       <c r="E648" t="s">
-        <v>8528</v>
+        <v>8527</v>
       </c>
       <c r="F648" t="s">
         <v>23</v>
@@ -58426,7 +58429,7 @@
         <v>23</v>
       </c>
       <c r="H648" t="s">
-        <v>8531</v>
+        <v>8530</v>
       </c>
       <c r="I648" t="s">
         <v>7627</v>
@@ -59021,7 +59024,7 @@
         <v>1030</v>
       </c>
       <c r="I659" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J659" t="s">
         <v>2199</v>
@@ -59580,7 +59583,7 @@
         <v>576</v>
       </c>
       <c r="C670" t="s">
-        <v>8077</v>
+        <v>8076</v>
       </c>
       <c r="D670" t="s">
         <v>2623</v>
@@ -59604,10 +59607,10 @@
         <v>3362</v>
       </c>
       <c r="K670" t="s">
-        <v>8257</v>
+        <v>8256</v>
       </c>
       <c r="L670" t="s">
-        <v>8206</v>
+        <v>8205</v>
       </c>
       <c r="M670" t="s">
         <v>7549</v>
@@ -59616,7 +59619,7 @@
         <v>3577</v>
       </c>
       <c r="V670" t="s">
-        <v>8258</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="671" spans="1:22" x14ac:dyDescent="0.3">
@@ -59644,19 +59647,19 @@
     </row>
     <row r="672" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>8427</v>
+        <v>8426</v>
       </c>
       <c r="B672" t="s">
         <v>5052</v>
       </c>
       <c r="C672" t="s">
+        <v>8427</v>
+      </c>
+      <c r="D672" t="s">
         <v>8428</v>
       </c>
-      <c r="D672" t="s">
+      <c r="E672" t="s">
         <v>8429</v>
-      </c>
-      <c r="E672" t="s">
-        <v>8430</v>
       </c>
       <c r="F672" t="s">
         <v>171</v>
@@ -59668,24 +59671,24 @@
         <v>7627</v>
       </c>
       <c r="M672" t="s">
-        <v>8431</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="673" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>8615</v>
+        <v>8614</v>
       </c>
       <c r="B673" t="s">
         <v>3985</v>
       </c>
       <c r="C673" t="s">
+        <v>8615</v>
+      </c>
+      <c r="D673" t="s">
         <v>8616</v>
       </c>
-      <c r="D673" t="s">
+      <c r="E673" t="s">
         <v>8617</v>
-      </c>
-      <c r="E673" t="s">
-        <v>8618</v>
       </c>
       <c r="F673" t="s">
         <v>171</v>
@@ -59694,13 +59697,13 @@
         <v>2242</v>
       </c>
       <c r="H673" t="s">
-        <v>8619</v>
+        <v>8618</v>
       </c>
       <c r="I673" t="s">
         <v>7627</v>
       </c>
       <c r="J673" t="s">
-        <v>8598</v>
+        <v>8597</v>
       </c>
       <c r="M673" t="s">
         <v>7551</v>
@@ -59900,10 +59903,10 @@
         <v>4656</v>
       </c>
       <c r="K677" t="s">
-        <v>8221</v>
+        <v>8220</v>
       </c>
       <c r="L677" t="s">
-        <v>8151</v>
+        <v>8150</v>
       </c>
       <c r="M677" t="s">
         <v>7904</v>
@@ -59924,7 +59927,7 @@
         <v>3577</v>
       </c>
       <c r="V677" t="s">
-        <v>8222</v>
+        <v>8221</v>
       </c>
     </row>
     <row r="678" spans="1:22" x14ac:dyDescent="0.3">
@@ -60918,10 +60921,10 @@
         <v>3362</v>
       </c>
       <c r="K697" t="s">
+        <v>8069</v>
+      </c>
+      <c r="L697" t="s">
         <v>8070</v>
-      </c>
-      <c r="L697" t="s">
-        <v>8071</v>
       </c>
       <c r="M697" t="s">
         <v>7548</v>
@@ -60948,7 +60951,7 @@
         <v>3577</v>
       </c>
       <c r="V697" t="s">
-        <v>8074</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="698" spans="1:22" x14ac:dyDescent="0.3">
@@ -61234,13 +61237,13 @@
         <v>590</v>
       </c>
       <c r="C705" t="s">
+        <v>8421</v>
+      </c>
+      <c r="D705" t="s">
         <v>8422</v>
       </c>
-      <c r="D705" t="s">
+      <c r="E705" t="s">
         <v>8423</v>
-      </c>
-      <c r="E705" t="s">
-        <v>8424</v>
       </c>
       <c r="F705" t="s">
         <v>151</v>
@@ -61249,7 +61252,7 @@
         <v>2241</v>
       </c>
       <c r="H705" t="s">
-        <v>8425</v>
+        <v>8424</v>
       </c>
       <c r="I705" t="s">
         <v>7627</v>
@@ -61299,7 +61302,7 @@
         <v>4154</v>
       </c>
       <c r="L706" t="s">
-        <v>8398</v>
+        <v>8397</v>
       </c>
       <c r="M706" t="s">
         <v>7904</v>
@@ -61323,7 +61326,7 @@
         <v>3577</v>
       </c>
       <c r="V706" t="s">
-        <v>8397</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="707" spans="1:22" x14ac:dyDescent="0.3">
@@ -62045,7 +62048,7 @@
         <v>6772</v>
       </c>
       <c r="E722" t="s">
-        <v>8495</v>
+        <v>8494</v>
       </c>
       <c r="F722" t="s">
         <v>123</v>
@@ -62063,7 +62066,7 @@
         <v>3372</v>
       </c>
       <c r="K722" t="s">
-        <v>8494</v>
+        <v>8493</v>
       </c>
       <c r="L722" t="s">
         <v>7788</v>
@@ -62122,16 +62125,16 @@
         <v>3372</v>
       </c>
       <c r="K723" t="s">
+        <v>8382</v>
+      </c>
+      <c r="L723" t="s">
         <v>8383</v>
       </c>
-      <c r="L723" t="s">
+      <c r="M723" t="s">
         <v>8384</v>
       </c>
-      <c r="M723" t="s">
+      <c r="V723" t="s">
         <v>8385</v>
-      </c>
-      <c r="V723" t="s">
-        <v>8386</v>
       </c>
     </row>
     <row r="724" spans="1:22" x14ac:dyDescent="0.3">
@@ -62363,7 +62366,7 @@
         <v>7549</v>
       </c>
       <c r="V728" t="s">
-        <v>8204</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="729" spans="1:22" x14ac:dyDescent="0.3">
@@ -62549,7 +62552,7 @@
     </row>
     <row r="734" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>8051</v>
+        <v>8050</v>
       </c>
       <c r="B734" t="s">
         <v>4191</v>
@@ -62558,10 +62561,10 @@
         <v>1080</v>
       </c>
       <c r="D734" t="s">
+        <v>8051</v>
+      </c>
+      <c r="E734" t="s">
         <v>8052</v>
-      </c>
-      <c r="E734" t="s">
-        <v>8053</v>
       </c>
       <c r="F734" t="s">
         <v>409</v>
@@ -62570,7 +62573,7 @@
         <v>3573</v>
       </c>
       <c r="H734" t="s">
-        <v>8054</v>
+        <v>8053</v>
       </c>
       <c r="I734" t="s">
         <v>2208</v>
@@ -62579,10 +62582,10 @@
         <v>3362</v>
       </c>
       <c r="K734" t="s">
+        <v>8262</v>
+      </c>
+      <c r="L734" t="s">
         <v>8263</v>
-      </c>
-      <c r="L734" t="s">
-        <v>8264</v>
       </c>
       <c r="M734" t="s">
         <v>7548</v>
@@ -62611,19 +62614,19 @@
     </row>
     <row r="735" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>8250</v>
+        <v>8249</v>
       </c>
       <c r="B735" t="s">
         <v>34</v>
       </c>
       <c r="C735" t="s">
+        <v>8250</v>
+      </c>
+      <c r="D735" t="s">
         <v>8251</v>
       </c>
-      <c r="D735" t="s">
+      <c r="E735" t="s">
         <v>8252</v>
-      </c>
-      <c r="E735" t="s">
-        <v>8253</v>
       </c>
       <c r="F735" t="s">
         <v>23</v>
@@ -62632,7 +62635,7 @@
         <v>23</v>
       </c>
       <c r="H735" t="s">
-        <v>8254</v>
+        <v>8253</v>
       </c>
       <c r="I735" t="s">
         <v>7461</v>
@@ -62641,10 +62644,10 @@
         <v>3372</v>
       </c>
       <c r="K735" t="s">
+        <v>8321</v>
+      </c>
+      <c r="L735" t="s">
         <v>8322</v>
-      </c>
-      <c r="L735" t="s">
-        <v>8323</v>
       </c>
       <c r="M735" t="s">
         <v>7549</v>
@@ -62652,7 +62655,7 @@
     </row>
     <row r="736" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>8599</v>
+        <v>8598</v>
       </c>
       <c r="B736" t="s">
         <v>4675</v>
@@ -62661,7 +62664,7 @@
         <v>7382</v>
       </c>
       <c r="D736" t="s">
-        <v>8600</v>
+        <v>8599</v>
       </c>
       <c r="F736" t="s">
         <v>171</v>
@@ -62670,7 +62673,7 @@
         <v>3595</v>
       </c>
       <c r="H736" t="s">
-        <v>8601</v>
+        <v>8600</v>
       </c>
       <c r="I736" t="s">
         <v>7627</v>
@@ -63914,7 +63917,7 @@
         <v>2220</v>
       </c>
       <c r="M761" t="s">
-        <v>8527</v>
+        <v>8526</v>
       </c>
       <c r="N761" t="s">
         <v>2220</v>
@@ -64360,13 +64363,13 @@
         <v>2230</v>
       </c>
       <c r="K771" t="s">
+        <v>8287</v>
+      </c>
+      <c r="L771" t="s">
+        <v>8205</v>
+      </c>
+      <c r="M771" t="s">
         <v>8288</v>
-      </c>
-      <c r="L771" t="s">
-        <v>8206</v>
-      </c>
-      <c r="M771" t="s">
-        <v>8289</v>
       </c>
       <c r="S771" t="s">
         <v>3577</v>
@@ -64526,10 +64529,10 @@
         <v>3372</v>
       </c>
       <c r="K776" t="s">
+        <v>8074</v>
+      </c>
+      <c r="L776" t="s">
         <v>8075</v>
-      </c>
-      <c r="L776" t="s">
-        <v>8076</v>
       </c>
       <c r="M776" t="s">
         <v>7593</v>
@@ -65384,10 +65387,10 @@
         <v>3372</v>
       </c>
       <c r="K794" t="s">
+        <v>8342</v>
+      </c>
+      <c r="L794" t="s">
         <v>8343</v>
-      </c>
-      <c r="L794" t="s">
-        <v>8344</v>
       </c>
       <c r="M794" t="s">
         <v>7549</v>
@@ -65504,13 +65507,13 @@
         <v>3372</v>
       </c>
       <c r="K797" t="s">
+        <v>8453</v>
+      </c>
+      <c r="L797" t="s">
         <v>8454</v>
       </c>
-      <c r="L797" t="s">
+      <c r="M797" t="s">
         <v>8455</v>
-      </c>
-      <c r="M797" t="s">
-        <v>8456</v>
       </c>
       <c r="N797" t="s">
         <v>2220</v>
@@ -65539,28 +65542,28 @@
     </row>
     <row r="798" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>8154</v>
+        <v>8153</v>
       </c>
       <c r="B798" t="s">
         <v>142</v>
       </c>
       <c r="C798" t="s">
+        <v>8154</v>
+      </c>
+      <c r="D798" t="s">
         <v>8155</v>
       </c>
-      <c r="D798" t="s">
+      <c r="E798" t="s">
         <v>8156</v>
-      </c>
-      <c r="E798" t="s">
-        <v>8157</v>
       </c>
       <c r="F798" t="s">
         <v>179</v>
       </c>
       <c r="G798" t="s">
+        <v>8157</v>
+      </c>
+      <c r="H798" t="s">
         <v>8158</v>
-      </c>
-      <c r="H798" t="s">
-        <v>8159</v>
       </c>
       <c r="I798" t="s">
         <v>7547</v>
@@ -65589,19 +65592,19 @@
     </row>
     <row r="799" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>8161</v>
+        <v>8160</v>
       </c>
       <c r="B799" t="s">
         <v>97</v>
       </c>
       <c r="C799" t="s">
+        <v>8161</v>
+      </c>
+      <c r="D799" t="s">
         <v>8162</v>
       </c>
-      <c r="D799" t="s">
+      <c r="E799" t="s">
         <v>8163</v>
-      </c>
-      <c r="E799" t="s">
-        <v>8164</v>
       </c>
       <c r="F799" t="s">
         <v>23</v>
@@ -65610,7 +65613,7 @@
         <v>23</v>
       </c>
       <c r="H799" t="s">
-        <v>8330</v>
+        <v>8329</v>
       </c>
       <c r="I799" t="s">
         <v>2208</v>
@@ -65619,10 +65622,10 @@
         <v>3372</v>
       </c>
       <c r="K799" t="s">
+        <v>8574</v>
+      </c>
+      <c r="L799" t="s">
         <v>8575</v>
-      </c>
-      <c r="L799" t="s">
-        <v>8576</v>
       </c>
       <c r="M799" t="s">
         <v>7549</v>
@@ -66116,7 +66119,7 @@
         <v>1253</v>
       </c>
       <c r="I809" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J809" t="s">
         <v>3372</v>
@@ -66143,7 +66146,7 @@
         <v>28</v>
       </c>
       <c r="V809" t="s">
-        <v>8501</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="810" spans="1:22" x14ac:dyDescent="0.3">
@@ -67151,7 +67154,7 @@
         <v>3372</v>
       </c>
       <c r="M830" t="s">
-        <v>8195</v>
+        <v>8194</v>
       </c>
       <c r="N830" t="s">
         <v>2220</v>
@@ -67657,16 +67660,16 @@
     </row>
     <row r="843" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>8120</v>
+        <v>8119</v>
       </c>
       <c r="B843" t="s">
         <v>163</v>
       </c>
       <c r="C843" t="s">
+        <v>8120</v>
+      </c>
+      <c r="D843" t="s">
         <v>8121</v>
-      </c>
-      <c r="D843" t="s">
-        <v>8122</v>
       </c>
       <c r="E843" t="s">
         <v>7440</v>
@@ -67678,7 +67681,7 @@
         <v>203</v>
       </c>
       <c r="H843" t="s">
-        <v>8123</v>
+        <v>8122</v>
       </c>
       <c r="I843" t="s">
         <v>7461</v>
@@ -67687,13 +67690,13 @@
         <v>3372</v>
       </c>
       <c r="K843" t="s">
+        <v>8386</v>
+      </c>
+      <c r="L843" t="s">
         <v>8387</v>
       </c>
-      <c r="L843" t="s">
-        <v>8388</v>
-      </c>
       <c r="M843" t="s">
-        <v>8195</v>
+        <v>8194</v>
       </c>
       <c r="R843" t="s">
         <v>3577</v>
@@ -67705,24 +67708,24 @@
         <v>3577</v>
       </c>
       <c r="V843" t="s">
-        <v>8386</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="844" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>8153</v>
+        <v>8152</v>
       </c>
       <c r="B844" t="s">
         <v>400</v>
       </c>
       <c r="C844" t="s">
+        <v>8442</v>
+      </c>
+      <c r="D844" t="s">
         <v>8443</v>
       </c>
-      <c r="D844" t="s">
-        <v>8444</v>
-      </c>
       <c r="E844" t="s">
-        <v>8506</v>
+        <v>8505</v>
       </c>
       <c r="F844" t="s">
         <v>23</v>
@@ -67731,7 +67734,7 @@
         <v>23</v>
       </c>
       <c r="H844" t="s">
-        <v>8445</v>
+        <v>8444</v>
       </c>
       <c r="I844" t="s">
         <v>7547</v>
@@ -67766,7 +67769,7 @@
     </row>
     <row r="845" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>8476</v>
+        <v>8475</v>
       </c>
       <c r="B845" t="s">
         <v>6265</v>
@@ -67775,10 +67778,10 @@
         <v>1256</v>
       </c>
       <c r="D845" t="s">
+        <v>8476</v>
+      </c>
+      <c r="E845" t="s">
         <v>8477</v>
-      </c>
-      <c r="E845" t="s">
-        <v>8478</v>
       </c>
       <c r="F845" t="s">
         <v>423</v>
@@ -67872,7 +67875,7 @@
         <v>5255</v>
       </c>
       <c r="E847" t="s">
-        <v>8534</v>
+        <v>8533</v>
       </c>
       <c r="F847" t="s">
         <v>160</v>
@@ -68390,7 +68393,7 @@
         <v>870</v>
       </c>
       <c r="C857" t="s">
-        <v>8280</v>
+        <v>8279</v>
       </c>
       <c r="D857" t="s">
         <v>2764</v>
@@ -68838,13 +68841,13 @@
         <v>4675</v>
       </c>
       <c r="C865" t="s">
+        <v>8301</v>
+      </c>
+      <c r="D865" t="s">
         <v>8302</v>
       </c>
-      <c r="D865" t="s">
+      <c r="E865" t="s">
         <v>8303</v>
-      </c>
-      <c r="E865" t="s">
-        <v>8304</v>
       </c>
       <c r="F865" t="s">
         <v>160</v>
@@ -68853,7 +68856,7 @@
         <v>160</v>
       </c>
       <c r="H865" t="s">
-        <v>8305</v>
+        <v>8304</v>
       </c>
       <c r="I865" t="s">
         <v>7461</v>
@@ -68956,7 +68959,7 @@
         <v>2771</v>
       </c>
       <c r="L867" t="s">
-        <v>8368</v>
+        <v>8367</v>
       </c>
       <c r="M867" t="s">
         <v>7660</v>
@@ -70756,10 +70759,10 @@
         <v>3372</v>
       </c>
       <c r="K903" t="s">
+        <v>8409</v>
+      </c>
+      <c r="L903" t="s">
         <v>8410</v>
-      </c>
-      <c r="L903" t="s">
-        <v>8411</v>
       </c>
       <c r="M903" t="s">
         <v>7549</v>
@@ -70783,7 +70786,7 @@
         <v>3577</v>
       </c>
       <c r="V903" t="s">
-        <v>8327</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="904" spans="1:22" x14ac:dyDescent="0.3">
@@ -71277,7 +71280,7 @@
         <v>4520</v>
       </c>
       <c r="M916" t="s">
-        <v>8453</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="917" spans="1:22" x14ac:dyDescent="0.3">
@@ -71692,7 +71695,7 @@
         <v>3577</v>
       </c>
       <c r="V924" t="s">
-        <v>8285</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="925" spans="1:22" x14ac:dyDescent="0.3">
@@ -72090,7 +72093,7 @@
         <v>3577</v>
       </c>
       <c r="V931" t="s">
-        <v>8318</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="932" spans="1:22" x14ac:dyDescent="0.3">
@@ -72444,7 +72447,7 @@
         <v>6719</v>
       </c>
       <c r="I940" t="s">
-        <v>8447</v>
+        <v>8446</v>
       </c>
       <c r="J940" t="s">
         <v>3372</v>
@@ -72670,10 +72673,10 @@
         <v>3372</v>
       </c>
       <c r="K945" t="s">
-        <v>8167</v>
+        <v>8166</v>
       </c>
       <c r="L945" t="s">
-        <v>8166</v>
+        <v>8165</v>
       </c>
       <c r="M945" t="s">
         <v>7548</v>
@@ -72833,7 +72836,7 @@
         <v>7955</v>
       </c>
       <c r="H950" t="s">
-        <v>8173</v>
+        <v>8172</v>
       </c>
       <c r="I950" t="s">
         <v>7627</v>
@@ -72842,10 +72845,10 @@
         <v>3372</v>
       </c>
       <c r="K950" t="s">
+        <v>8173</v>
+      </c>
+      <c r="L950" t="s">
         <v>8174</v>
-      </c>
-      <c r="L950" t="s">
-        <v>8175</v>
       </c>
       <c r="M950" t="s">
         <v>7549</v>
@@ -72853,16 +72856,16 @@
     </row>
     <row r="951" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
+        <v>8059</v>
+      </c>
+      <c r="B951" t="s">
         <v>8060</v>
-      </c>
-      <c r="B951" t="s">
-        <v>8061</v>
       </c>
       <c r="C951" t="s">
         <v>1386</v>
       </c>
       <c r="D951" t="s">
-        <v>8062</v>
+        <v>8061</v>
       </c>
       <c r="F951" t="s">
         <v>911</v>
@@ -72871,7 +72874,7 @@
         <v>911</v>
       </c>
       <c r="H951" t="s">
-        <v>8063</v>
+        <v>8062</v>
       </c>
       <c r="I951" t="s">
         <v>7627</v>
@@ -72885,16 +72888,16 @@
     </row>
     <row r="952" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>8109</v>
+        <v>8108</v>
       </c>
       <c r="B952" t="s">
         <v>97</v>
       </c>
       <c r="C952" t="s">
+        <v>8109</v>
+      </c>
+      <c r="D952" t="s">
         <v>8110</v>
-      </c>
-      <c r="D952" t="s">
-        <v>8111</v>
       </c>
       <c r="F952" t="s">
         <v>57</v>
@@ -72903,7 +72906,7 @@
         <v>2762</v>
       </c>
       <c r="H952" t="s">
-        <v>8112</v>
+        <v>8111</v>
       </c>
       <c r="I952" t="s">
         <v>7547</v>
@@ -72914,16 +72917,16 @@
     </row>
     <row r="953" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>8180</v>
+        <v>8179</v>
       </c>
       <c r="B953" t="s">
         <v>630</v>
       </c>
       <c r="C953" t="s">
+        <v>8180</v>
+      </c>
+      <c r="D953" t="s">
         <v>8181</v>
-      </c>
-      <c r="D953" t="s">
-        <v>8182</v>
       </c>
       <c r="F953" t="s">
         <v>294</v>
@@ -72932,10 +72935,10 @@
         <v>2283</v>
       </c>
       <c r="H953" t="s">
+        <v>8182</v>
+      </c>
+      <c r="I953" t="s">
         <v>8183</v>
-      </c>
-      <c r="I953" t="s">
-        <v>8184</v>
       </c>
       <c r="J953" t="s">
         <v>3372</v>
@@ -72959,33 +72962,33 @@
         <v>2220</v>
       </c>
       <c r="V953" t="s">
-        <v>8185</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="954" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
+        <v>8206</v>
+      </c>
+      <c r="B954" t="s">
         <v>8207</v>
-      </c>
-      <c r="B954" t="s">
-        <v>8208</v>
       </c>
       <c r="C954" t="s">
         <v>1410</v>
       </c>
       <c r="D954" t="s">
+        <v>8208</v>
+      </c>
+      <c r="E954" t="s">
         <v>8209</v>
-      </c>
-      <c r="E954" t="s">
-        <v>8210</v>
       </c>
       <c r="F954" t="s">
         <v>171</v>
       </c>
       <c r="G954" t="s">
+        <v>8210</v>
+      </c>
+      <c r="H954" t="s">
         <v>8211</v>
-      </c>
-      <c r="H954" t="s">
-        <v>8212</v>
       </c>
       <c r="I954" t="s">
         <v>7547</v>
@@ -72997,21 +73000,21 @@
         <v>8009</v>
       </c>
       <c r="V954" t="s">
-        <v>8185</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="955" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>8281</v>
+        <v>8280</v>
       </c>
       <c r="B955" t="s">
         <v>920</v>
       </c>
       <c r="C955" t="s">
+        <v>8281</v>
+      </c>
+      <c r="D955" t="s">
         <v>8282</v>
-      </c>
-      <c r="D955" t="s">
-        <v>8283</v>
       </c>
       <c r="F955" t="s">
         <v>241</v>
@@ -73020,7 +73023,7 @@
         <v>241</v>
       </c>
       <c r="H955" t="s">
-        <v>8284</v>
+        <v>8283</v>
       </c>
       <c r="I955" t="s">
         <v>3375</v>
@@ -73034,16 +73037,16 @@
     </row>
     <row r="956" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>8363</v>
+        <v>8362</v>
       </c>
       <c r="B956" t="s">
         <v>576</v>
       </c>
       <c r="C956" t="s">
+        <v>8363</v>
+      </c>
+      <c r="D956" t="s">
         <v>8364</v>
-      </c>
-      <c r="D956" t="s">
-        <v>8365</v>
       </c>
       <c r="F956" t="s">
         <v>203</v>
@@ -73052,10 +73055,10 @@
         <v>5234</v>
       </c>
       <c r="H956" t="s">
-        <v>8366</v>
+        <v>8365</v>
       </c>
       <c r="I956" t="s">
-        <v>8362</v>
+        <v>8361</v>
       </c>
       <c r="J956" t="s">
         <v>3372</v>
@@ -73063,19 +73066,19 @@
     </row>
     <row r="957" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>8378</v>
+        <v>8377</v>
       </c>
       <c r="B957" t="s">
         <v>7971</v>
       </c>
       <c r="C957" t="s">
+        <v>8378</v>
+      </c>
+      <c r="D957" t="s">
         <v>8379</v>
       </c>
-      <c r="D957" t="s">
+      <c r="E957" t="s">
         <v>8380</v>
-      </c>
-      <c r="E957" t="s">
-        <v>8381</v>
       </c>
       <c r="F957" t="s">
         <v>525</v>
@@ -73084,7 +73087,7 @@
         <v>525</v>
       </c>
       <c r="H957" t="s">
-        <v>8382</v>
+        <v>8381</v>
       </c>
       <c r="I957" t="s">
         <v>7547</v>
@@ -73101,19 +73104,19 @@
     </row>
     <row r="958" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
+        <v>8557</v>
+      </c>
+      <c r="B958" t="s">
         <v>8558</v>
       </c>
-      <c r="B958" t="s">
+      <c r="C958" t="s">
         <v>8559</v>
       </c>
-      <c r="C958" t="s">
+      <c r="D958" t="s">
         <v>8560</v>
       </c>
-      <c r="D958" t="s">
+      <c r="E958" t="s">
         <v>8561</v>
-      </c>
-      <c r="E958" t="s">
-        <v>8562</v>
       </c>
       <c r="F958" t="s">
         <v>23</v>
@@ -73122,7 +73125,7 @@
         <v>23</v>
       </c>
       <c r="H958" t="s">
-        <v>8563</v>
+        <v>8562</v>
       </c>
       <c r="J958" t="s">
         <v>3362</v>
@@ -73133,28 +73136,28 @@
     </row>
     <row r="959" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
+        <v>8605</v>
+      </c>
+      <c r="B959" t="s">
         <v>8606</v>
       </c>
-      <c r="B959" t="s">
+      <c r="C959" t="s">
         <v>8607</v>
       </c>
-      <c r="C959" t="s">
+      <c r="D959" t="s">
         <v>8608</v>
       </c>
-      <c r="D959" t="s">
+      <c r="E959" t="s">
         <v>8609</v>
-      </c>
-      <c r="E959" t="s">
-        <v>8610</v>
       </c>
       <c r="F959" t="s">
         <v>151</v>
       </c>
       <c r="G959" t="s">
+        <v>8610</v>
+      </c>
+      <c r="H959" t="s">
         <v>8611</v>
-      </c>
-      <c r="H959" t="s">
-        <v>8612</v>
       </c>
       <c r="I959" t="s">
         <v>7627</v>
@@ -73820,7 +73823,7 @@
         <v>7420</v>
       </c>
       <c r="E974" t="s">
-        <v>8059</v>
+        <v>8058</v>
       </c>
       <c r="F974" t="s">
         <v>23</v>
@@ -73838,10 +73841,10 @@
         <v>3362</v>
       </c>
       <c r="K974" t="s">
+        <v>8063</v>
+      </c>
+      <c r="L974" t="s">
         <v>8064</v>
-      </c>
-      <c r="L974" t="s">
-        <v>8065</v>
       </c>
       <c r="M974" t="s">
         <v>7549</v>
@@ -73904,23 +73907,23 @@
       <c r="C976" t="s">
         <v>8020</v>
       </c>
-      <c r="D976" t="s">
-        <v>8021</v>
+      <c r="D976">
+        <v>2279316161</v>
       </c>
       <c r="F976" t="s">
         <v>57</v>
       </c>
       <c r="G976" t="s">
+        <v>8021</v>
+      </c>
+      <c r="H976" t="s">
         <v>8022</v>
-      </c>
-      <c r="H976" t="s">
-        <v>8023</v>
       </c>
       <c r="I976" t="s">
         <v>3528</v>
       </c>
       <c r="J976" t="s">
-        <v>8024</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="977" spans="1:22" x14ac:dyDescent="0.3">
@@ -74087,10 +74090,10 @@
         <v>1467</v>
       </c>
       <c r="D980" t="s">
+        <v>8577</v>
+      </c>
+      <c r="E980" t="s">
         <v>8578</v>
-      </c>
-      <c r="E980" t="s">
-        <v>8579</v>
       </c>
       <c r="F980" t="s">
         <v>23</v>
@@ -75122,16 +75125,16 @@
         <v>4363</v>
       </c>
       <c r="I1001" t="s">
-        <v>8447</v>
+        <v>8446</v>
       </c>
       <c r="J1001" t="s">
         <v>3372</v>
       </c>
       <c r="K1001" t="s">
+        <v>8472</v>
+      </c>
+      <c r="L1001" t="s">
         <v>8473</v>
-      </c>
-      <c r="L1001" t="s">
-        <v>8474</v>
       </c>
       <c r="M1001" t="s">
         <v>7551</v>
@@ -75207,7 +75210,7 @@
         <v>4369</v>
       </c>
       <c r="I1003" t="s">
-        <v>8325</v>
+        <v>8324</v>
       </c>
       <c r="J1003" t="s">
         <v>3365</v>
@@ -75251,10 +75254,10 @@
         <v>4370</v>
       </c>
       <c r="D1004" t="s">
+        <v>8463</v>
+      </c>
+      <c r="E1004" t="s">
         <v>8464</v>
-      </c>
-      <c r="E1004" t="s">
-        <v>8465</v>
       </c>
       <c r="F1004" t="s">
         <v>23</v>
@@ -75354,7 +75357,7 @@
         <v>3577</v>
       </c>
       <c r="V1006" t="s">
-        <v>8171</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="1007" spans="1:22" x14ac:dyDescent="0.3">
@@ -75948,7 +75951,7 @@
         <v>7324</v>
       </c>
       <c r="H1018" t="s">
-        <v>8377</v>
+        <v>8376</v>
       </c>
       <c r="I1018" t="s">
         <v>7627</v>
@@ -76013,10 +76016,10 @@
         <v>3372</v>
       </c>
       <c r="K1019" t="s">
+        <v>8224</v>
+      </c>
+      <c r="L1019" t="s">
         <v>8225</v>
-      </c>
-      <c r="L1019" t="s">
-        <v>8226</v>
       </c>
       <c r="M1019" t="s">
         <v>7549</v>
@@ -76080,28 +76083,28 @@
     </row>
     <row r="1021" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>8114</v>
+        <v>8113</v>
       </c>
       <c r="B1021" t="s">
         <v>64</v>
       </c>
       <c r="C1021" t="s">
+        <v>8114</v>
+      </c>
+      <c r="D1021" t="s">
         <v>8115</v>
       </c>
-      <c r="D1021" t="s">
+      <c r="E1021" t="s">
         <v>8116</v>
-      </c>
-      <c r="E1021" t="s">
-        <v>8117</v>
       </c>
       <c r="F1021" t="s">
         <v>294</v>
       </c>
       <c r="G1021" t="s">
+        <v>8117</v>
+      </c>
+      <c r="H1021" t="s">
         <v>8118</v>
-      </c>
-      <c r="H1021" t="s">
-        <v>8119</v>
       </c>
       <c r="I1021" t="s">
         <v>2208</v>
@@ -76110,13 +76113,13 @@
         <v>3372</v>
       </c>
       <c r="K1021" t="s">
+        <v>8366</v>
+      </c>
+      <c r="L1021" t="s">
         <v>8367</v>
       </c>
-      <c r="L1021" t="s">
+      <c r="M1021" t="s">
         <v>8368</v>
-      </c>
-      <c r="M1021" t="s">
-        <v>8369</v>
       </c>
       <c r="N1021" t="s">
         <v>2220</v>
@@ -76281,7 +76284,7 @@
         <v>2883</v>
       </c>
       <c r="L1024" t="s">
-        <v>8351</v>
+        <v>8350</v>
       </c>
       <c r="M1024" t="s">
         <v>7549</v>
@@ -76296,7 +76299,7 @@
         <v>3577</v>
       </c>
       <c r="V1024" t="s">
-        <v>8352</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="1025" spans="1:22" x14ac:dyDescent="0.3">
@@ -76910,7 +76913,7 @@
         <v>3372</v>
       </c>
       <c r="K1037" t="s">
-        <v>8203</v>
+        <v>8202</v>
       </c>
       <c r="L1037" t="s">
         <v>7958</v>
@@ -78051,10 +78054,10 @@
         <v>3372</v>
       </c>
       <c r="K1060" t="s">
+        <v>8195</v>
+      </c>
+      <c r="L1060" t="s">
         <v>8196</v>
-      </c>
-      <c r="L1060" t="s">
-        <v>8197</v>
       </c>
       <c r="M1060" t="s">
         <v>7548</v>
@@ -78081,7 +78084,7 @@
         <v>3577</v>
       </c>
       <c r="V1060" t="s">
-        <v>8198</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="1061" spans="1:22" x14ac:dyDescent="0.3">
@@ -78515,7 +78518,7 @@
         <v>7033</v>
       </c>
       <c r="L1070" t="s">
-        <v>8255</v>
+        <v>8254</v>
       </c>
       <c r="M1070" t="s">
         <v>7548</v>
@@ -78854,7 +78857,7 @@
         <v>2220</v>
       </c>
       <c r="V1076" t="s">
-        <v>8570</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="1077" spans="1:22" x14ac:dyDescent="0.3">
@@ -79028,7 +79031,7 @@
         <v>3577</v>
       </c>
       <c r="V1079" t="s">
-        <v>8324</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="1080" spans="1:22" x14ac:dyDescent="0.3">
@@ -79311,7 +79314,7 @@
         <v>2220</v>
       </c>
       <c r="V1084" t="s">
-        <v>8525</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="1085" spans="1:22" x14ac:dyDescent="0.3">
@@ -79576,19 +79579,19 @@
     </row>
     <row r="1092" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>8029</v>
+        <v>8028</v>
       </c>
       <c r="B1092" t="s">
         <v>34</v>
       </c>
       <c r="C1092" t="s">
+        <v>8029</v>
+      </c>
+      <c r="D1092" t="s">
         <v>8030</v>
       </c>
-      <c r="D1092" t="s">
+      <c r="E1092" t="s">
         <v>8031</v>
-      </c>
-      <c r="E1092" t="s">
-        <v>8032</v>
       </c>
       <c r="F1092" t="s">
         <v>171</v>
@@ -79597,7 +79600,7 @@
         <v>2242</v>
       </c>
       <c r="H1092" t="s">
-        <v>8033</v>
+        <v>8032</v>
       </c>
       <c r="I1092" t="s">
         <v>7547</v>
@@ -79611,7 +79614,7 @@
     </row>
     <row r="1093" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>8360</v>
+        <v>8359</v>
       </c>
       <c r="B1093" t="s">
         <v>126</v>
@@ -79620,7 +79623,7 @@
         <v>1532</v>
       </c>
       <c r="D1093" t="s">
-        <v>8361</v>
+        <v>8360</v>
       </c>
       <c r="E1093" t="s">
         <v>5291</v>
@@ -79632,7 +79635,7 @@
         <v>2664</v>
       </c>
       <c r="I1093" t="s">
-        <v>8362</v>
+        <v>8361</v>
       </c>
       <c r="J1093" t="s">
         <v>3372</v>
@@ -79640,19 +79643,19 @@
     </row>
     <row r="1094" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
+        <v>8543</v>
+      </c>
+      <c r="B1094" t="s">
         <v>8544</v>
       </c>
-      <c r="B1094" t="s">
+      <c r="C1094" t="s">
         <v>8545</v>
       </c>
-      <c r="C1094" t="s">
+      <c r="D1094" t="s">
         <v>8546</v>
       </c>
-      <c r="D1094" t="s">
+      <c r="E1094" t="s">
         <v>8547</v>
-      </c>
-      <c r="E1094" t="s">
-        <v>8548</v>
       </c>
       <c r="F1094" t="s">
         <v>23</v>
@@ -79661,10 +79664,10 @@
         <v>23</v>
       </c>
       <c r="H1094" t="s">
-        <v>8549</v>
+        <v>8548</v>
       </c>
       <c r="I1094" t="s">
-        <v>8362</v>
+        <v>8361</v>
       </c>
       <c r="J1094" t="s">
         <v>3362</v>
@@ -80435,7 +80438,7 @@
         <v>1661</v>
       </c>
       <c r="I1109" t="s">
-        <v>8624</v>
+        <v>8623</v>
       </c>
       <c r="J1109" t="s">
         <v>2230</v>
@@ -80662,7 +80665,7 @@
         <v>3577</v>
       </c>
       <c r="V1113" t="s">
-        <v>8557</v>
+        <v>8556</v>
       </c>
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.3">
@@ -80727,7 +80730,7 @@
         <v>3577</v>
       </c>
       <c r="V1114" t="s">
-        <v>8256</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="1115" spans="1:22" x14ac:dyDescent="0.3">
@@ -82030,7 +82033,7 @@
         <v>7549</v>
       </c>
       <c r="V1140" t="s">
-        <v>8170</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="1141" spans="1:22" x14ac:dyDescent="0.3">
@@ -82164,10 +82167,10 @@
         <v>3372</v>
       </c>
       <c r="K1144" t="s">
+        <v>8215</v>
+      </c>
+      <c r="L1144" t="s">
         <v>8216</v>
-      </c>
-      <c r="L1144" t="s">
-        <v>8217</v>
       </c>
       <c r="M1144" t="s">
         <v>7948</v>
@@ -82217,7 +82220,7 @@
         <v>2339</v>
       </c>
       <c r="H1145" t="s">
-        <v>8087</v>
+        <v>8086</v>
       </c>
       <c r="I1145" t="s">
         <v>7547</v>
@@ -82231,25 +82234,25 @@
     </row>
     <row r="1146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
+        <v>8096</v>
+      </c>
+      <c r="B1146" t="s">
         <v>8097</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>8098</v>
       </c>
       <c r="C1146" t="s">
         <v>1640</v>
       </c>
       <c r="D1146" t="s">
-        <v>8099</v>
+        <v>8098</v>
       </c>
       <c r="F1146" t="s">
         <v>203</v>
       </c>
       <c r="G1146" t="s">
-        <v>8100</v>
+        <v>8099</v>
       </c>
       <c r="H1146" t="s">
-        <v>8128</v>
+        <v>8127</v>
       </c>
       <c r="I1146" t="s">
         <v>7461</v>
@@ -82258,39 +82261,39 @@
         <v>3372</v>
       </c>
       <c r="K1146" t="s">
+        <v>8389</v>
+      </c>
+      <c r="L1146" t="s">
         <v>8390</v>
-      </c>
-      <c r="L1146" t="s">
-        <v>8391</v>
       </c>
       <c r="M1146" t="s">
         <v>7549</v>
       </c>
       <c r="V1146" t="s">
-        <v>8386</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="1147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
+        <v>8241</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>8097</v>
+      </c>
+      <c r="C1147" t="s">
         <v>8242</v>
       </c>
-      <c r="B1147" t="s">
+      <c r="D1147" t="s">
         <v>8098</v>
-      </c>
-      <c r="C1147" t="s">
-        <v>8243</v>
-      </c>
-      <c r="D1147" t="s">
-        <v>8099</v>
       </c>
       <c r="F1147" t="s">
         <v>203</v>
       </c>
       <c r="G1147" t="s">
-        <v>8100</v>
+        <v>8099</v>
       </c>
       <c r="H1147" t="s">
-        <v>8128</v>
+        <v>8127</v>
       </c>
       <c r="I1147" t="s">
         <v>7461</v>
@@ -82299,33 +82302,33 @@
         <v>3365</v>
       </c>
       <c r="K1147" t="s">
+        <v>8391</v>
+      </c>
+      <c r="L1147" t="s">
         <v>8392</v>
-      </c>
-      <c r="L1147" t="s">
-        <v>8393</v>
       </c>
       <c r="M1147" t="s">
         <v>7549</v>
       </c>
       <c r="V1147" t="s">
-        <v>8386</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="1148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
+        <v>8243</v>
+      </c>
+      <c r="B1148" t="s">
         <v>8244</v>
       </c>
-      <c r="B1148" t="s">
+      <c r="C1148" t="s">
         <v>8245</v>
       </c>
-      <c r="C1148" t="s">
+      <c r="D1148" t="s">
         <v>8246</v>
       </c>
-      <c r="D1148" t="s">
+      <c r="E1148" t="s">
         <v>8247</v>
-      </c>
-      <c r="E1148" t="s">
-        <v>8248</v>
       </c>
       <c r="F1148" t="s">
         <v>23</v>
@@ -82334,7 +82337,7 @@
         <v>2260</v>
       </c>
       <c r="H1148" t="s">
-        <v>8249</v>
+        <v>8248</v>
       </c>
       <c r="I1148" t="s">
         <v>7627</v>
@@ -82348,16 +82351,16 @@
     </row>
     <row r="1149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>8259</v>
+        <v>8258</v>
       </c>
       <c r="B1149" t="s">
         <v>368</v>
       </c>
       <c r="C1149" t="s">
+        <v>8259</v>
+      </c>
+      <c r="D1149" t="s">
         <v>8260</v>
-      </c>
-      <c r="D1149" t="s">
-        <v>8261</v>
       </c>
       <c r="E1149" t="s">
         <v>2844</v>
@@ -82369,7 +82372,7 @@
         <v>2242</v>
       </c>
       <c r="H1149" t="s">
-        <v>8262</v>
+        <v>8261</v>
       </c>
       <c r="I1149" t="s">
         <v>7547</v>
@@ -82396,12 +82399,12 @@
         <v>2220</v>
       </c>
       <c r="V1149" t="s">
-        <v>8526</v>
+        <v>8525</v>
       </c>
     </row>
     <row r="1150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>8276</v>
+        <v>8275</v>
       </c>
       <c r="B1150" t="s">
         <v>4183</v>
@@ -82410,10 +82413,10 @@
         <v>7764</v>
       </c>
       <c r="D1150" t="s">
+        <v>8276</v>
+      </c>
+      <c r="E1150" t="s">
         <v>8277</v>
-      </c>
-      <c r="E1150" t="s">
-        <v>8278</v>
       </c>
       <c r="F1150" t="s">
         <v>1250</v>
@@ -82422,7 +82425,7 @@
         <v>952</v>
       </c>
       <c r="H1150" t="s">
-        <v>8279</v>
+        <v>8278</v>
       </c>
       <c r="I1150" t="s">
         <v>7547</v>
@@ -82457,16 +82460,16 @@
     </row>
     <row r="1151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>8517</v>
+        <v>8516</v>
       </c>
       <c r="B1151" t="s">
         <v>314</v>
       </c>
       <c r="C1151" t="s">
+        <v>8517</v>
+      </c>
+      <c r="D1151" t="s">
         <v>8518</v>
-      </c>
-      <c r="D1151" t="s">
-        <v>8519</v>
       </c>
       <c r="E1151" t="s">
         <v>2052</v>
@@ -82478,7 +82481,7 @@
         <v>2236</v>
       </c>
       <c r="H1151" t="s">
-        <v>8520</v>
+        <v>8519</v>
       </c>
       <c r="J1151" t="s">
         <v>3372</v>
@@ -83288,16 +83291,16 @@
     </row>
     <row r="1169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>8585</v>
+        <v>8584</v>
       </c>
       <c r="B1169" t="s">
         <v>297</v>
       </c>
       <c r="C1169" t="s">
+        <v>8585</v>
+      </c>
+      <c r="D1169" t="s">
         <v>8586</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>8587</v>
       </c>
       <c r="F1169" t="s">
         <v>123</v>
@@ -83306,7 +83309,7 @@
         <v>3620</v>
       </c>
       <c r="H1169" t="s">
-        <v>8588</v>
+        <v>8587</v>
       </c>
       <c r="I1169" t="s">
         <v>3791</v>
@@ -84206,7 +84209,7 @@
         <v>3011</v>
       </c>
       <c r="E1187" t="s">
-        <v>8432</v>
+        <v>8431</v>
       </c>
       <c r="F1187" t="s">
         <v>250</v>
@@ -84242,7 +84245,7 @@
         <v>2220</v>
       </c>
       <c r="V1187" t="s">
-        <v>8433</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.3">
@@ -85070,7 +85073,7 @@
         <v>1822</v>
       </c>
       <c r="I1205" t="s">
-        <v>8461</v>
+        <v>8460</v>
       </c>
       <c r="J1205" t="s">
         <v>3372</v>
@@ -85079,7 +85082,7 @@
         <v>3045</v>
       </c>
       <c r="M1205" t="s">
-        <v>8457</v>
+        <v>8456</v>
       </c>
       <c r="N1205" t="s">
         <v>2220</v>
@@ -85438,10 +85441,10 @@
         <v>3365</v>
       </c>
       <c r="K1212" t="s">
-        <v>8574</v>
+        <v>8573</v>
       </c>
       <c r="L1212" t="s">
-        <v>8271</v>
+        <v>8270</v>
       </c>
       <c r="M1212" t="s">
         <v>7551</v>
@@ -86053,7 +86056,7 @@
         <v>3372</v>
       </c>
       <c r="K1224" t="s">
-        <v>8389</v>
+        <v>8388</v>
       </c>
       <c r="L1224" t="s">
         <v>7703</v>
@@ -86074,7 +86077,7 @@
         <v>2220</v>
       </c>
       <c r="V1224" t="s">
-        <v>8386</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="1225" spans="1:22" x14ac:dyDescent="0.3">
@@ -86738,10 +86741,10 @@
         <v>2220</v>
       </c>
       <c r="P1238" t="s">
+        <v>8626</v>
+      </c>
+      <c r="Q1238" t="s">
         <v>8627</v>
-      </c>
-      <c r="Q1238" t="s">
-        <v>8628</v>
       </c>
       <c r="R1238" t="s">
         <v>2206</v>
@@ -88049,7 +88052,7 @@
         <v>4690</v>
       </c>
       <c r="D1268" t="s">
-        <v>8048</v>
+        <v>8047</v>
       </c>
       <c r="E1268" t="s">
         <v>4691</v>
@@ -88333,7 +88336,7 @@
         <v>4701</v>
       </c>
       <c r="D1275" t="s">
-        <v>8577</v>
+        <v>8576</v>
       </c>
       <c r="E1275" t="s">
         <v>3737</v>
@@ -88571,13 +88574,13 @@
         <v>1784</v>
       </c>
       <c r="D1280" t="s">
-        <v>8193</v>
+        <v>8192</v>
       </c>
       <c r="F1280" t="s">
         <v>23</v>
       </c>
       <c r="H1280" t="s">
-        <v>8194</v>
+        <v>8193</v>
       </c>
       <c r="I1280" t="s">
         <v>3375</v>
@@ -88671,10 +88674,10 @@
         <v>3372</v>
       </c>
       <c r="K1282" t="s">
+        <v>8190</v>
+      </c>
+      <c r="L1282" t="s">
         <v>8191</v>
-      </c>
-      <c r="L1282" t="s">
-        <v>8192</v>
       </c>
       <c r="M1282" t="s">
         <v>7744</v>
@@ -90710,7 +90713,7 @@
         <v>5963</v>
       </c>
       <c r="I1322" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J1322" t="s">
         <v>3372</v>
@@ -91366,7 +91369,7 @@
         <v>3365</v>
       </c>
       <c r="K1335" t="s">
-        <v>8396</v>
+        <v>8395</v>
       </c>
       <c r="L1335" t="s">
         <v>7958</v>
@@ -91375,7 +91378,7 @@
         <v>8009</v>
       </c>
       <c r="V1335" t="s">
-        <v>8386</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="1336" spans="1:22" x14ac:dyDescent="0.3">
@@ -91434,7 +91437,7 @@
         <v>2220</v>
       </c>
       <c r="V1336" t="s">
-        <v>8386</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="1337" spans="1:22" x14ac:dyDescent="0.3">
@@ -91679,16 +91682,16 @@
         <v>7019</v>
       </c>
       <c r="B1343" t="s">
+        <v>8232</v>
+      </c>
+      <c r="C1343" t="s">
         <v>8233</v>
       </c>
-      <c r="C1343" t="s">
+      <c r="D1343" t="s">
         <v>8234</v>
       </c>
-      <c r="D1343" t="s">
+      <c r="E1343" t="s">
         <v>8235</v>
-      </c>
-      <c r="E1343" t="s">
-        <v>8236</v>
       </c>
       <c r="F1343" t="s">
         <v>123</v>
@@ -91697,7 +91700,7 @@
         <v>2236</v>
       </c>
       <c r="H1343" t="s">
-        <v>8237</v>
+        <v>8236</v>
       </c>
       <c r="I1343" t="s">
         <v>7627</v>
@@ -91886,7 +91889,7 @@
         <v>2206</v>
       </c>
       <c r="V1346" t="s">
-        <v>8397</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="1347" spans="1:22" x14ac:dyDescent="0.3">
@@ -91990,13 +91993,13 @@
         <v>549</v>
       </c>
       <c r="C1350" t="s">
+        <v>8043</v>
+      </c>
+      <c r="D1350" t="s">
         <v>8044</v>
       </c>
-      <c r="D1350" t="s">
+      <c r="E1350" t="s">
         <v>8045</v>
-      </c>
-      <c r="E1350" t="s">
-        <v>8046</v>
       </c>
       <c r="F1350" t="s">
         <v>171</v>
@@ -92005,7 +92008,7 @@
         <v>2242</v>
       </c>
       <c r="H1350" t="s">
-        <v>8047</v>
+        <v>8046</v>
       </c>
       <c r="I1350" t="s">
         <v>3375</v>
@@ -92017,7 +92020,7 @@
         <v>7549</v>
       </c>
       <c r="V1350" t="s">
-        <v>8096</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="1351" spans="1:22" x14ac:dyDescent="0.3">
@@ -92121,16 +92124,16 @@
     </row>
     <row r="1354" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>8078</v>
+        <v>8077</v>
       </c>
       <c r="B1354" t="s">
         <v>277</v>
       </c>
       <c r="C1354" t="s">
+        <v>8078</v>
+      </c>
+      <c r="D1354" t="s">
         <v>8079</v>
-      </c>
-      <c r="D1354" t="s">
-        <v>8080</v>
       </c>
       <c r="F1354" t="s">
         <v>188</v>
@@ -92139,7 +92142,7 @@
         <v>3380</v>
       </c>
       <c r="H1354" t="s">
-        <v>8081</v>
+        <v>8080</v>
       </c>
       <c r="I1354" t="s">
         <v>7627</v>
@@ -92153,19 +92156,19 @@
     </row>
     <row r="1355" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
+        <v>8081</v>
+      </c>
+      <c r="B1355" t="s">
         <v>8082</v>
       </c>
-      <c r="B1355" t="s">
+      <c r="C1355" t="s">
         <v>8083</v>
       </c>
-      <c r="C1355" t="s">
+      <c r="D1355" t="s">
         <v>8084</v>
       </c>
-      <c r="D1355" t="s">
+      <c r="E1355" t="s">
         <v>8085</v>
-      </c>
-      <c r="E1355" t="s">
-        <v>8086</v>
       </c>
       <c r="F1355" t="s">
         <v>112</v>
@@ -92174,7 +92177,7 @@
         <v>2674</v>
       </c>
       <c r="H1355" t="s">
-        <v>8172</v>
+        <v>8171</v>
       </c>
       <c r="I1355" t="s">
         <v>7461</v>
@@ -92188,16 +92191,16 @@
     </row>
     <row r="1356" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>8101</v>
+        <v>8100</v>
       </c>
       <c r="B1356" t="s">
         <v>3659</v>
       </c>
       <c r="C1356" t="s">
+        <v>8101</v>
+      </c>
+      <c r="D1356" t="s">
         <v>8102</v>
-      </c>
-      <c r="D1356" t="s">
-        <v>8103</v>
       </c>
       <c r="F1356" t="s">
         <v>23</v>
@@ -92206,7 +92209,7 @@
         <v>23</v>
       </c>
       <c r="H1356" t="s">
-        <v>8104</v>
+        <v>8103</v>
       </c>
       <c r="I1356" t="s">
         <v>7461</v>
@@ -92220,16 +92223,16 @@
     </row>
     <row r="1357" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
+        <v>8104</v>
+      </c>
+      <c r="B1357" t="s">
         <v>8105</v>
       </c>
-      <c r="B1357" t="s">
+      <c r="C1357" t="s">
         <v>8106</v>
       </c>
-      <c r="C1357" t="s">
+      <c r="D1357" t="s">
         <v>8107</v>
-      </c>
-      <c r="D1357" t="s">
-        <v>8108</v>
       </c>
       <c r="F1357" t="s">
         <v>112</v>
@@ -92238,7 +92241,7 @@
         <v>1858</v>
       </c>
       <c r="H1357" t="s">
-        <v>8414</v>
+        <v>8413</v>
       </c>
       <c r="I1357" t="s">
         <v>7547</v>
@@ -92250,21 +92253,21 @@
         <v>8009</v>
       </c>
       <c r="V1357" t="s">
-        <v>8571</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="1358" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>8124</v>
+        <v>8123</v>
       </c>
       <c r="B1358" t="s">
         <v>64</v>
       </c>
       <c r="C1358" t="s">
+        <v>8124</v>
+      </c>
+      <c r="D1358" t="s">
         <v>8125</v>
-      </c>
-      <c r="D1358" t="s">
-        <v>8126</v>
       </c>
       <c r="E1358" t="s">
         <v>4773</v>
@@ -92276,7 +92279,7 @@
         <v>179</v>
       </c>
       <c r="H1358" t="s">
-        <v>8127</v>
+        <v>8126</v>
       </c>
       <c r="J1358" t="s">
         <v>3372</v>
@@ -92284,7 +92287,7 @@
     </row>
     <row r="1359" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>8294</v>
+        <v>8293</v>
       </c>
       <c r="B1359" t="s">
         <v>1108</v>
@@ -92293,16 +92296,16 @@
         <v>1886</v>
       </c>
       <c r="D1359" t="s">
-        <v>8295</v>
+        <v>8294</v>
       </c>
       <c r="F1359" t="s">
         <v>423</v>
       </c>
       <c r="G1359" t="s">
+        <v>8295</v>
+      </c>
+      <c r="H1359" t="s">
         <v>8296</v>
-      </c>
-      <c r="H1359" t="s">
-        <v>8297</v>
       </c>
       <c r="I1359" t="s">
         <v>7627</v>
@@ -92316,19 +92319,19 @@
     </row>
     <row r="1360" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>8580</v>
+        <v>8579</v>
       </c>
       <c r="B1360" t="s">
         <v>66</v>
       </c>
       <c r="C1360" t="s">
+        <v>8580</v>
+      </c>
+      <c r="D1360" t="s">
         <v>8581</v>
       </c>
-      <c r="D1360" t="s">
+      <c r="E1360" t="s">
         <v>8582</v>
-      </c>
-      <c r="E1360" t="s">
-        <v>8583</v>
       </c>
       <c r="F1360" t="s">
         <v>160</v>
@@ -92337,7 +92340,7 @@
         <v>160</v>
       </c>
       <c r="H1360" t="s">
-        <v>8584</v>
+        <v>8583</v>
       </c>
       <c r="J1360" t="s">
         <v>3372</v>
@@ -92422,7 +92425,7 @@
         <v>3138</v>
       </c>
       <c r="E1362" t="s">
-        <v>8565</v>
+        <v>8564</v>
       </c>
       <c r="F1362" t="s">
         <v>203</v>
@@ -92652,7 +92655,7 @@
         <v>3146</v>
       </c>
       <c r="M1366" t="s">
-        <v>8359</v>
+        <v>8358</v>
       </c>
       <c r="N1366" t="s">
         <v>2220</v>
@@ -93608,7 +93611,7 @@
         <v>3184</v>
       </c>
       <c r="E1385" t="s">
-        <v>8152</v>
+        <v>8151</v>
       </c>
       <c r="F1385" t="s">
         <v>171</v>
@@ -94157,7 +94160,7 @@
         <v>4847</v>
       </c>
       <c r="I1397" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J1397" t="s">
         <v>3376</v>
@@ -94774,10 +94777,10 @@
         <v>3372</v>
       </c>
       <c r="K1410" t="s">
+        <v>8566</v>
+      </c>
+      <c r="L1410" t="s">
         <v>8567</v>
-      </c>
-      <c r="L1410" t="s">
-        <v>8568</v>
       </c>
       <c r="M1410" t="s">
         <v>7904</v>
@@ -94804,7 +94807,7 @@
         <v>3577</v>
       </c>
       <c r="V1410" t="s">
-        <v>8569</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="1411" spans="1:22" x14ac:dyDescent="0.3">
@@ -94895,7 +94898,7 @@
         <v>6328</v>
       </c>
       <c r="M1412" t="s">
-        <v>8286</v>
+        <v>8285</v>
       </c>
       <c r="N1412" t="s">
         <v>2220</v>
@@ -95304,10 +95307,10 @@
         <v>3365</v>
       </c>
       <c r="K1420" t="s">
+        <v>8148</v>
+      </c>
+      <c r="L1420" t="s">
         <v>8149</v>
-      </c>
-      <c r="L1420" t="s">
-        <v>8150</v>
       </c>
       <c r="M1420" t="s">
         <v>7551</v>
@@ -95357,7 +95360,7 @@
         <v>3137</v>
       </c>
       <c r="H1421" t="s">
-        <v>8223</v>
+        <v>8222</v>
       </c>
       <c r="I1421" t="s">
         <v>7547</v>
@@ -95384,7 +95387,7 @@
         <v>2220</v>
       </c>
       <c r="V1421" t="s">
-        <v>8232</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="1422" spans="1:22" x14ac:dyDescent="0.3">
@@ -95550,13 +95553,13 @@
     </row>
     <row r="1426" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1426" t="s">
-        <v>8027</v>
+        <v>8026</v>
       </c>
       <c r="B1426" t="s">
         <v>1137</v>
       </c>
       <c r="C1426" t="s">
-        <v>8028</v>
+        <v>8027</v>
       </c>
       <c r="D1426" t="s">
         <v>4901</v>
@@ -95571,7 +95574,7 @@
         <v>4849</v>
       </c>
       <c r="I1426" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J1426" t="s">
         <v>3372</v>
@@ -95580,21 +95583,21 @@
         <v>7551</v>
       </c>
       <c r="V1426" t="s">
-        <v>8043</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="1427" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1427" t="s">
-        <v>8055</v>
+        <v>8054</v>
       </c>
       <c r="B1427" t="s">
         <v>240</v>
       </c>
       <c r="C1427" t="s">
+        <v>8055</v>
+      </c>
+      <c r="D1427" t="s">
         <v>8056</v>
-      </c>
-      <c r="D1427" t="s">
-        <v>8057</v>
       </c>
       <c r="F1427" t="s">
         <v>23</v>
@@ -95603,7 +95606,7 @@
         <v>23</v>
       </c>
       <c r="H1427" t="s">
-        <v>8058</v>
+        <v>8057</v>
       </c>
       <c r="I1427" t="s">
         <v>3791</v>
@@ -95626,16 +95629,16 @@
     </row>
     <row r="1428" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1428" t="s">
-        <v>8435</v>
+        <v>8434</v>
       </c>
       <c r="B1428" t="s">
         <v>901</v>
       </c>
       <c r="C1428" t="s">
-        <v>8440</v>
+        <v>8439</v>
       </c>
       <c r="D1428" t="s">
-        <v>8442</v>
+        <v>8441</v>
       </c>
       <c r="E1428" t="s">
         <v>2087</v>
@@ -95647,7 +95650,7 @@
         <v>2236</v>
       </c>
       <c r="H1428" t="s">
-        <v>8441</v>
+        <v>8440</v>
       </c>
       <c r="I1428" t="s">
         <v>7627</v>
@@ -95661,7 +95664,7 @@
     </row>
     <row r="1429" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1429" t="s">
-        <v>8436</v>
+        <v>8435</v>
       </c>
       <c r="B1429" t="s">
         <v>301</v>
@@ -95670,10 +95673,10 @@
         <v>5987</v>
       </c>
       <c r="D1429" t="s">
+        <v>8436</v>
+      </c>
+      <c r="E1429" t="s">
         <v>8437</v>
-      </c>
-      <c r="E1429" t="s">
-        <v>8438</v>
       </c>
       <c r="F1429" t="s">
         <v>587</v>
@@ -95682,10 +95685,10 @@
         <v>2737</v>
       </c>
       <c r="H1429" t="s">
-        <v>8439</v>
+        <v>8438</v>
       </c>
       <c r="I1429" t="s">
-        <v>8479</v>
+        <v>8478</v>
       </c>
       <c r="J1429" t="s">
         <v>3372</v>
@@ -95714,25 +95717,25 @@
     </row>
     <row r="1430" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1430" t="s">
-        <v>8507</v>
+        <v>8506</v>
       </c>
       <c r="B1430" t="s">
         <v>93</v>
       </c>
       <c r="C1430" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D1430" t="s">
         <v>8508</v>
-      </c>
-      <c r="D1430" t="s">
-        <v>8509</v>
       </c>
       <c r="F1430" t="s">
         <v>171</v>
       </c>
       <c r="G1430" t="s">
+        <v>8509</v>
+      </c>
+      <c r="H1430" t="s">
         <v>8510</v>
-      </c>
-      <c r="H1430" t="s">
-        <v>8511</v>
       </c>
       <c r="J1430" t="s">
         <v>3372</v>
@@ -95773,7 +95776,7 @@
         <v>3372</v>
       </c>
       <c r="M1431" t="s">
-        <v>8195</v>
+        <v>8194</v>
       </c>
       <c r="N1431" t="s">
         <v>2220</v>
@@ -96228,7 +96231,7 @@
         <v>6132</v>
       </c>
       <c r="I1441" t="s">
-        <v>8238</v>
+        <v>8237</v>
       </c>
       <c r="J1441" t="s">
         <v>3372</v>
@@ -96315,16 +96318,16 @@
     </row>
     <row r="1444" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
-        <v>8404</v>
+        <v>8403</v>
       </c>
       <c r="B1444" t="s">
         <v>1137</v>
       </c>
       <c r="C1444" t="s">
+        <v>8404</v>
+      </c>
+      <c r="D1444" t="s">
         <v>8405</v>
-      </c>
-      <c r="D1444" t="s">
-        <v>8406</v>
       </c>
       <c r="F1444" t="s">
         <v>23</v>
@@ -96333,7 +96336,7 @@
         <v>6177</v>
       </c>
       <c r="H1444" t="s">
-        <v>8407</v>
+        <v>8406</v>
       </c>
       <c r="I1444" t="s">
         <v>7627</v>
@@ -97120,25 +97123,25 @@
     </row>
     <row r="1461" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1461" t="s">
+        <v>8370</v>
+      </c>
+      <c r="B1461" t="s">
         <v>8371</v>
       </c>
-      <c r="B1461" t="s">
+      <c r="C1461" t="s">
         <v>8372</v>
       </c>
-      <c r="C1461" t="s">
+      <c r="D1461" t="s">
         <v>8373</v>
       </c>
-      <c r="D1461" t="s">
+      <c r="E1461" t="s">
         <v>8374</v>
-      </c>
-      <c r="E1461" t="s">
-        <v>8375</v>
       </c>
       <c r="F1461" t="s">
         <v>203</v>
       </c>
       <c r="H1461" t="s">
-        <v>8376</v>
+        <v>8375</v>
       </c>
       <c r="J1461" t="s">
         <v>3402</v>
@@ -97146,16 +97149,16 @@
     </row>
     <row r="1462" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1462" t="s">
-        <v>8399</v>
+        <v>8398</v>
       </c>
       <c r="B1462" t="s">
         <v>651</v>
       </c>
       <c r="C1462" t="s">
+        <v>8399</v>
+      </c>
+      <c r="D1462" t="s">
         <v>8400</v>
-      </c>
-      <c r="D1462" t="s">
-        <v>8401</v>
       </c>
       <c r="E1462" t="s">
         <v>4843</v>
@@ -97167,7 +97170,7 @@
         <v>2664</v>
       </c>
       <c r="H1462" t="s">
-        <v>8402</v>
+        <v>8401</v>
       </c>
       <c r="I1462" t="s">
         <v>7461</v>
@@ -97181,7 +97184,7 @@
     </row>
     <row r="1463" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1463" t="s">
-        <v>8490</v>
+        <v>8489</v>
       </c>
       <c r="B1463" t="s">
         <v>3718</v>
@@ -97190,10 +97193,10 @@
         <v>630</v>
       </c>
       <c r="D1463" t="s">
+        <v>8490</v>
+      </c>
+      <c r="E1463" t="s">
         <v>8491</v>
-      </c>
-      <c r="E1463" t="s">
-        <v>8492</v>
       </c>
       <c r="F1463" t="s">
         <v>203</v>
@@ -97202,10 +97205,10 @@
         <v>5234</v>
       </c>
       <c r="H1463" t="s">
-        <v>8493</v>
+        <v>8492</v>
       </c>
       <c r="I1463" t="s">
-        <v>8362</v>
+        <v>8361</v>
       </c>
       <c r="J1463" t="s">
         <v>3365</v>
@@ -98173,6 +98176,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V1483"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>